--- a/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
@@ -4,70 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="2.6#焦炉加热制度表（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_jiaore6_day_hour" sheetId="2" r:id="rId2"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId3"/>
+  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>6# 焦  炉  加  热  制  度  记  录</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>年</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">           </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>日</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <rFont val="Times New Roman"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">         </t>
-    </r>
   </si>
   <si>
     <t>编号：SGSSG-BSMCS35-G003-11A</t>
@@ -644,13 +597,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,7 +695,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -754,11 +708,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -778,59 +785,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,7 +815,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -865,26 +834,6 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -919,144 +868,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1069,7 +880,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1081,7 +988,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,7 +1006,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1295,15 +1244,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1322,19 +1262,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1343,7 +1287,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1363,6 +1307,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1377,31 +1341,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1410,141 +1359,141 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1631,10 +1580,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
@@ -2129,6 +2081,19 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="_metadata"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2389,8 +2354,8 @@
   <sheetPr/>
   <dimension ref="A1:AV62"/>
   <sheetViews>
-    <sheetView topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:AV7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S2" sqref="S2:V2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2438,16 +2403,16 @@
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
-      <c r="AM1" s="32"/>
-      <c r="AN1" s="32"/>
-      <c r="AO1" s="32"/>
-      <c r="AP1" s="32"/>
-      <c r="AQ1" s="32"/>
-      <c r="AR1" s="32"/>
-      <c r="AS1" s="32"/>
-      <c r="AT1" s="32"/>
-      <c r="AU1" s="32"/>
-      <c r="AV1" s="32"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
     <row r="2" s="7" customFormat="1" ht="14.25" spans="2:48">
       <c r="B2" s="9"/>
@@ -2467,8 +2432,9 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="30" t="s">
-        <v>1</v>
+      <c r="S2" s="30" t="e">
+        <f>[1]_metadata!B1</f>
+        <v>#REF!</v>
       </c>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
@@ -2480,34 +2446,34 @@
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
-      <c r="AD2" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE2" s="30"/>
-      <c r="AF2" s="30"/>
-      <c r="AG2" s="30"/>
-      <c r="AH2" s="30"/>
-      <c r="AI2" s="30"/>
-      <c r="AJ2" s="30"/>
-      <c r="AK2" s="30"/>
-      <c r="AL2" s="30"/>
-      <c r="AM2" s="30"/>
-      <c r="AN2" s="30"/>
-      <c r="AO2" s="30"/>
-      <c r="AP2" s="30"/>
-      <c r="AQ2" s="30"/>
-      <c r="AR2" s="30"/>
-      <c r="AS2" s="30"/>
-      <c r="AT2" s="30"/>
-      <c r="AU2" s="30"/>
-      <c r="AV2" s="30"/>
+      <c r="AD2" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
     </row>
     <row r="3" s="7" customFormat="1" ht="18.95" customHeight="1" spans="2:48">
       <c r="B3" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="13" t="s">
         <v>3</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>4</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2519,35 +2485,35 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="X3" s="13"/>
       <c r="Y3" s="13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB3" s="13"/>
       <c r="AC3" s="13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
@@ -2557,28 +2523,28 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="AL3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AL3" s="33" t="s">
+      <c r="AM3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AM3" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="AN3" s="34"/>
-      <c r="AO3" s="34"/>
-      <c r="AP3" s="34"/>
-      <c r="AQ3" s="34"/>
-      <c r="AR3" s="34"/>
-      <c r="AS3" s="34"/>
-      <c r="AT3" s="34"/>
-      <c r="AU3" s="34"/>
-      <c r="AV3" s="42"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="43"/>
     </row>
     <row r="4" s="7" customFormat="1" spans="2:48">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2586,30 +2552,30 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="Q4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="R4" s="15" t="s">
         <v>19</v>
-      </c>
-      <c r="R4" s="15" t="s">
-        <v>20</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -2628,43 +2594,43 @@
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
       <c r="AK4" s="15"/>
-      <c r="AL4" s="35"/>
-      <c r="AM4" s="36"/>
-      <c r="AN4" s="36"/>
-      <c r="AO4" s="36"/>
-      <c r="AP4" s="36"/>
-      <c r="AQ4" s="36"/>
-      <c r="AR4" s="36"/>
-      <c r="AS4" s="36"/>
-      <c r="AT4" s="36"/>
-      <c r="AU4" s="36"/>
-      <c r="AV4" s="43"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
+      <c r="AV4" s="44"/>
     </row>
     <row r="5" s="7" customFormat="1" spans="2:48">
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -2673,105 +2639,105 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="W5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="X5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="X5" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="Y5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="Z5" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="AA5" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AB5" s="15" t="s">
-        <v>27</v>
-      </c>
       <c r="AC5" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="15"/>
-      <c r="AL5" s="35"/>
+      <c r="AL5" s="36"/>
       <c r="AM5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AN5" s="15" t="s">
+      <c r="AO5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AO5" s="15" t="s">
+      <c r="AP5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AP5" s="15" t="s">
+      <c r="AQ5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AQ5" s="15" t="s">
+      <c r="AR5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AR5" s="15" t="s">
+      <c r="AS5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AS5" s="15" t="s">
+      <c r="AT5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AT5" s="15" t="s">
+      <c r="AU5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AU5" s="15" t="s">
+      <c r="AV5" s="45" t="s">
         <v>36</v>
-      </c>
-      <c r="AV5" s="44" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="6" s="7" customFormat="1" ht="22.5" spans="2:48">
       <c r="B6" s="14"/>
       <c r="C6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="E6" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="F6" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>24</v>
-      </c>
       <c r="H6" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="J6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>39</v>
-      </c>
       <c r="K6" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="L6" s="15" t="s">
         <v>38</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>39</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -2779,29 +2745,29 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="31" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="S6" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="T6" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="Z6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Z6" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="AA6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AB6" s="2" t="s">
         <v>42</v>
-      </c>
-      <c r="AB6" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="AC6" s="15">
         <v>1</v>
@@ -2828,184 +2794,184 @@
         <v>4</v>
       </c>
       <c r="AK6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AL6" s="2" t="s">
+      <c r="AN6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AM6" s="15" t="s">
+      <c r="AO6" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AN6" s="15" t="s">
+      <c r="AQ6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR6" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="AS6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AT6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AO6" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="AP6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AQ6" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="AR6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AS6" s="15" t="s">
+      <c r="AU6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AT6" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="AU6" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="AV6" s="44" t="s">
-        <v>49</v>
+      <c r="AV6" s="45" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="7" s="7" customFormat="1" ht="56.25" spans="1:48">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="N7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="O7" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="P7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="2" t="s">
+      <c r="Q7" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="R7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="R7" s="2" t="s">
+      <c r="S7" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="S7" s="2" t="s">
+      <c r="T7" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="U7" s="2" t="s">
+      <c r="V7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="V7" s="2" t="s">
+      <c r="W7" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="W7" s="2" t="s">
+      <c r="X7" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="X7" s="2" t="s">
+      <c r="Y7" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="Y7" s="2" t="s">
+      <c r="Z7" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z7" s="2" t="s">
+      <c r="AA7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA7" s="2" t="s">
+      <c r="AB7" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AB7" s="2" t="s">
+      <c r="AC7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AC7" s="2" t="s">
+      <c r="AD7" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AD7" s="2" t="s">
+      <c r="AE7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AE7" s="2" t="s">
+      <c r="AF7" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AF7" s="2" t="s">
+      <c r="AG7" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AG7" s="2" t="s">
+      <c r="AH7" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AH7" s="2" t="s">
+      <c r="AI7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AJ7" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AJ7" s="2" t="s">
+      <c r="AK7" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AK7" s="2" t="s">
+      <c r="AL7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AL7" s="2" t="s">
+      <c r="AM7" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AM7" s="3" t="s">
+      <c r="AN7" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AN7" s="4" t="s">
+      <c r="AO7" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AO7" s="5" t="s">
+      <c r="AP7" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AP7" s="5" t="s">
+      <c r="AQ7" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AQ7" s="5" t="s">
+      <c r="AR7" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AR7" s="5" t="s">
+      <c r="AS7" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AS7" s="5" t="s">
+      <c r="AT7" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AT7" s="5" t="s">
+      <c r="AU7" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AU7" s="5" t="s">
+      <c r="AV7" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="AV7" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="8" s="7" customFormat="1" spans="2:48">
@@ -3381,7 +3347,7 @@
         <f>IF(_jiaore6_day_hour!AS3="","",_jiaore6_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV9" s="45" t="str">
+      <c r="AV9" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT3="","",_jiaore6_day_hour!AT3)</f>
         <v/>
       </c>
@@ -3570,7 +3536,7 @@
         <f>IF(_jiaore6_day_hour!AS4="","",_jiaore6_day_hour!AS4)</f>
         <v/>
       </c>
-      <c r="AV10" s="45" t="str">
+      <c r="AV10" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT4="","",_jiaore6_day_hour!AT4)</f>
         <v/>
       </c>
@@ -3723,15 +3689,15 @@
         <f>IF(_jiaore6_day_hour!AJ5="","",_jiaore6_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="37" t="str">
+      <c r="AM11" s="38" t="str">
         <f>IF(_jiaore6_day_hour!AK5="","",_jiaore6_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="37" t="str">
+      <c r="AN11" s="38" t="str">
         <f>IF(_jiaore6_day_hour!AL5="","",_jiaore6_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="37" t="str">
+      <c r="AO11" s="38" t="str">
         <f>IF(_jiaore6_day_hour!AM5="","",_jiaore6_day_hour!AM5)</f>
         <v/>
       </c>
@@ -3759,7 +3725,7 @@
         <f>IF(_jiaore6_day_hour!AS5="","",_jiaore6_day_hour!AS5)</f>
         <v/>
       </c>
-      <c r="AV11" s="45" t="str">
+      <c r="AV11" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT5="","",_jiaore6_day_hour!AT5)</f>
         <v/>
       </c>
@@ -3948,7 +3914,7 @@
         <f>IF(_jiaore6_day_hour!AS6="","",_jiaore6_day_hour!AS6)</f>
         <v/>
       </c>
-      <c r="AV12" s="45" t="str">
+      <c r="AV12" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT6="","",_jiaore6_day_hour!AT6)</f>
         <v/>
       </c>
@@ -4137,7 +4103,7 @@
         <f>IF(_jiaore6_day_hour!AS7="","",_jiaore6_day_hour!AS7)</f>
         <v/>
       </c>
-      <c r="AV13" s="45" t="str">
+      <c r="AV13" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT7="","",_jiaore6_day_hour!AT7)</f>
         <v/>
       </c>
@@ -4326,7 +4292,7 @@
         <f>IF(_jiaore6_day_hour!AS8="","",_jiaore6_day_hour!AS8)</f>
         <v/>
       </c>
-      <c r="AV14" s="45" t="str">
+      <c r="AV14" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT8="","",_jiaore6_day_hour!AT8)</f>
         <v/>
       </c>
@@ -4515,7 +4481,7 @@
         <f>IF(_jiaore6_day_hour!AS9="","",_jiaore6_day_hour!AS9)</f>
         <v/>
       </c>
-      <c r="AV15" s="45" t="str">
+      <c r="AV15" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT9="","",_jiaore6_day_hour!AT9)</f>
         <v/>
       </c>
@@ -4704,7 +4670,7 @@
         <f>IF(_jiaore6_day_hour!AS10="","",_jiaore6_day_hour!AS10)</f>
         <v/>
       </c>
-      <c r="AV16" s="45" t="str">
+      <c r="AV16" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT10="","",_jiaore6_day_hour!AT10)</f>
         <v/>
       </c>
@@ -4893,7 +4859,7 @@
         <f>IF(_jiaore6_day_hour!AS11="","",_jiaore6_day_hour!AS11)</f>
         <v/>
       </c>
-      <c r="AV17" s="45" t="str">
+      <c r="AV17" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT11="","",_jiaore6_day_hour!AT11)</f>
         <v/>
       </c>
@@ -12082,7 +12048,7 @@
     </row>
     <row r="56" s="7" customFormat="1" spans="2:48">
       <c r="B56" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -12133,7 +12099,7 @@
     </row>
     <row r="57" s="7" customFormat="1" spans="2:48">
       <c r="B57" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -12184,7 +12150,7 @@
     </row>
     <row r="58" s="7" customFormat="1" spans="2:48">
       <c r="B58" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -12235,7 +12201,7 @@
     </row>
     <row r="59" s="7" customFormat="1" spans="2:48">
       <c r="B59" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -12286,7 +12252,7 @@
     </row>
     <row r="60" s="7" customFormat="1" ht="72" customHeight="1" spans="2:48">
       <c r="B60" s="23" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -12299,7 +12265,7 @@
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
       <c r="M60" s="28" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
@@ -12312,7 +12278,7 @@
       <c r="V60" s="24"/>
       <c r="W60" s="24"/>
       <c r="X60" s="28" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
@@ -12324,24 +12290,24 @@
       <c r="AF60" s="24"/>
       <c r="AG60" s="24"/>
       <c r="AH60" s="24"/>
-      <c r="AI60" s="38"/>
-      <c r="AJ60" s="39"/>
-      <c r="AK60" s="39"/>
-      <c r="AL60" s="39"/>
-      <c r="AM60" s="39"/>
-      <c r="AN60" s="39"/>
-      <c r="AO60" s="39"/>
-      <c r="AP60" s="39"/>
-      <c r="AQ60" s="39"/>
-      <c r="AR60" s="39"/>
-      <c r="AS60" s="39"/>
-      <c r="AT60" s="39"/>
-      <c r="AU60" s="39"/>
-      <c r="AV60" s="46"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="40"/>
+      <c r="AL60" s="40"/>
+      <c r="AM60" s="40"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="40"/>
+      <c r="AP60" s="40"/>
+      <c r="AQ60" s="40"/>
+      <c r="AR60" s="40"/>
+      <c r="AS60" s="40"/>
+      <c r="AT60" s="40"/>
+      <c r="AU60" s="40"/>
+      <c r="AV60" s="47"/>
     </row>
     <row r="61" s="7" customFormat="1" ht="14.45" customHeight="1" spans="2:48">
       <c r="B61" s="25" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -12354,7 +12320,7 @@
       <c r="K61" s="26"/>
       <c r="L61" s="26"/>
       <c r="M61" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="N61" s="26"/>
       <c r="O61" s="26"/>
@@ -12367,7 +12333,7 @@
       <c r="V61" s="26"/>
       <c r="W61" s="26"/>
       <c r="X61" s="29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="Y61" s="26"/>
       <c r="Z61" s="26"/>
@@ -12379,20 +12345,20 @@
       <c r="AF61" s="26"/>
       <c r="AG61" s="26"/>
       <c r="AH61" s="26"/>
-      <c r="AI61" s="40"/>
-      <c r="AJ61" s="41"/>
-      <c r="AK61" s="41"/>
-      <c r="AL61" s="41"/>
-      <c r="AM61" s="41"/>
-      <c r="AN61" s="41"/>
-      <c r="AO61" s="41"/>
-      <c r="AP61" s="41"/>
-      <c r="AQ61" s="41"/>
-      <c r="AR61" s="41"/>
-      <c r="AS61" s="41"/>
-      <c r="AT61" s="41"/>
-      <c r="AU61" s="41"/>
-      <c r="AV61" s="47"/>
+      <c r="AI61" s="41"/>
+      <c r="AJ61" s="42"/>
+      <c r="AK61" s="42"/>
+      <c r="AL61" s="42"/>
+      <c r="AM61" s="42"/>
+      <c r="AN61" s="42"/>
+      <c r="AO61" s="42"/>
+      <c r="AP61" s="42"/>
+      <c r="AQ61" s="42"/>
+      <c r="AR61" s="42"/>
+      <c r="AS61" s="42"/>
+      <c r="AT61" s="42"/>
+      <c r="AU61" s="42"/>
+      <c r="AV61" s="48"/>
     </row>
     <row r="62" s="7" customFormat="1" spans="3:3">
       <c r="C62" s="27"/>
@@ -12454,7 +12420,7 @@
   <sheetPr/>
   <dimension ref="A1:AT1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AT1"/>
     </sheetView>
   </sheetViews>
@@ -12462,142 +12428,142 @@
   <sheetData>
     <row r="1" customFormat="1" ht="56.25" spans="1:46">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AK1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="AK1" s="3" t="s">
+      <c r="AL1" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="AL1" s="4" t="s">
+      <c r="AM1" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AM1" s="5" t="s">
+      <c r="AN1" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="AN1" s="5" t="s">
+      <c r="AO1" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="AO1" s="5" t="s">
+      <c r="AP1" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="AP1" s="5" t="s">
+      <c r="AQ1" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AQ1" s="5" t="s">
+      <c r="AR1" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="AR1" s="5" t="s">
+      <c r="AS1" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="AS1" s="5" t="s">
+      <c r="AT1" s="6" t="s">
         <v>95</v>
-      </c>
-      <c r="AT1" s="6" t="s">
-        <v>96</v>
       </c>
     </row>
   </sheetData>

--- a/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
@@ -4,15 +4,13 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.6#焦炉加热制度表（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_jiaore6_day_hour" sheetId="2" r:id="rId2"/>
+    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId3"/>
-  </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -598,10 +596,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
   </numFmts>
   <fonts count="37">
@@ -688,21 +686,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -716,11 +715,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -733,29 +738,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,29 +775,8 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -806,23 +790,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -834,6 +819,19 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -868,7 +866,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -880,13 +932,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -898,73 +1010,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -982,73 +1034,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,8 +1260,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1292,21 +1290,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1321,8 +1304,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1341,16 +1324,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1359,139 +1357,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="17" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="22" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2081,19 +2079,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="_metadata"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2354,7 +2339,7 @@
   <sheetPr/>
   <dimension ref="A1:AV62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:V2"/>
     </sheetView>
   </sheetViews>
@@ -2432,9 +2417,9 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="30" t="e">
-        <f>[1]_metadata!B1</f>
-        <v>#REF!</v>
+      <c r="S2" s="30">
+        <f>_metadata!B1</f>
+        <v>0</v>
       </c>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
@@ -12570,4 +12555,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.6#焦炉加热制度表（日）" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
   <si>
     <t>6# 焦  炉  加  热  制  度  记  录</t>
   </si>
@@ -31,6 +31,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>煤气流量（</t>
@@ -39,7 +40,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m</t>
     </r>
@@ -48,7 +49,7 @@
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>3</t>
     </r>
@@ -56,7 +57,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -64,6 +65,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -74,6 +76,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>煤气压力（</t>
@@ -82,7 +85,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Pa</t>
     </r>
@@ -90,6 +93,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -103,6 +107,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>烟道吸力（</t>
@@ -111,7 +116,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Pa</t>
     </r>
@@ -119,6 +124,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -138,6 +144,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>标准蓄热室吸力（</t>
@@ -146,7 +153,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>Pa</t>
     </r>
@@ -154,6 +161,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -245,6 +253,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累积</t>
@@ -253,7 +262,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">      (</t>
     </r>
@@ -261,6 +270,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万</t>
@@ -269,7 +279,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t>m3)</t>
     </r>
@@ -462,7 +472,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -471,6 +481,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -479,7 +490,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -489,7 +500,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -497,6 +508,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -506,6 +518,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -514,7 +527,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -524,7 +537,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -532,6 +545,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -541,6 +555,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -549,7 +564,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -559,7 +574,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -568,6 +583,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -576,7 +592,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <charset val="134"/>
+        <family val="1"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -585,6 +601,7 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -594,15 +611,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
-  </numFmts>
-  <fonts count="37">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,51 +623,58 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -665,193 +682,63 @@
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <charset val="134"/>
+      <family val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -864,194 +751,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="23">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1241,310 +942,56 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="24" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1556,139 +1003,113 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 5" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 5" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1699,7 +1120,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1713,7 +1134,7 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
@@ -1905,7 +1326,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1951,7 +1372,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1997,7 +1418,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -2043,7 +1464,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp>
+    <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -2331,451 +1752,451 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AV62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="7" customFormat="1" ht="22.5" spans="2:48">
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:48" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-      <c r="R1" s="8"/>
-      <c r="S1" s="8"/>
-      <c r="T1" s="8"/>
-      <c r="U1" s="8"/>
-      <c r="V1" s="8"/>
-      <c r="W1" s="8"/>
-      <c r="X1" s="8"/>
-      <c r="Y1" s="8"/>
-      <c r="Z1" s="8"/>
-      <c r="AA1" s="8"/>
-      <c r="AB1" s="8"/>
-      <c r="AC1" s="8"/>
-      <c r="AD1" s="8"/>
-      <c r="AE1" s="8"/>
-      <c r="AF1" s="8"/>
-      <c r="AG1" s="8"/>
-      <c r="AH1" s="8"/>
-      <c r="AI1" s="8"/>
-      <c r="AJ1" s="8"/>
-      <c r="AK1" s="8"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="26"/>
+      <c r="P1" s="26"/>
+      <c r="Q1" s="26"/>
+      <c r="R1" s="26"/>
+      <c r="S1" s="26"/>
+      <c r="T1" s="26"/>
+      <c r="U1" s="26"/>
+      <c r="V1" s="26"/>
+      <c r="W1" s="26"/>
+      <c r="X1" s="26"/>
+      <c r="Y1" s="26"/>
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26"/>
+      <c r="AB1" s="26"/>
+      <c r="AC1" s="26"/>
+      <c r="AD1" s="26"/>
+      <c r="AE1" s="26"/>
+      <c r="AF1" s="26"/>
+      <c r="AG1" s="26"/>
+      <c r="AH1" s="26"/>
+      <c r="AI1" s="26"/>
+      <c r="AJ1" s="26"/>
+      <c r="AK1" s="26"/>
       <c r="AL1" s="8"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="AM1" s="22"/>
+      <c r="AN1" s="22"/>
+      <c r="AO1" s="22"/>
+      <c r="AP1" s="22"/>
+      <c r="AQ1" s="22"/>
+      <c r="AR1" s="22"/>
+      <c r="AS1" s="22"/>
+      <c r="AT1" s="22"/>
+      <c r="AU1" s="22"/>
+      <c r="AV1" s="22"/>
     </row>
-    <row r="2" s="7" customFormat="1" ht="14.25" spans="2:48">
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
-      <c r="R2" s="11"/>
-      <c r="S2" s="30">
-        <f>_metadata!B1</f>
+    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10"/>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10"/>
+      <c r="N2" s="10"/>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="51">
+        <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
-      <c r="W2" s="11"/>
-      <c r="X2" s="11"/>
-      <c r="Y2" s="11"/>
-      <c r="Z2" s="11"/>
-      <c r="AA2" s="11"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="32" t="s">
+      <c r="T2" s="51"/>
+      <c r="U2" s="51"/>
+      <c r="V2" s="51"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
+      <c r="AG2" s="28"/>
+      <c r="AH2" s="28"/>
+      <c r="AI2" s="28"/>
+      <c r="AJ2" s="28"/>
+      <c r="AK2" s="28"/>
+      <c r="AL2" s="21"/>
+      <c r="AM2" s="21"/>
+      <c r="AN2" s="21"/>
+      <c r="AO2" s="21"/>
+      <c r="AP2" s="21"/>
+      <c r="AQ2" s="21"/>
+      <c r="AR2" s="21"/>
+      <c r="AS2" s="21"/>
+      <c r="AT2" s="21"/>
+      <c r="AU2" s="21"/>
+      <c r="AV2" s="21"/>
     </row>
-    <row r="3" s="7" customFormat="1" ht="18.95" customHeight="1" spans="2:48">
-      <c r="B3" s="12" t="s">
+    <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="K3" s="29"/>
+      <c r="L3" s="29"/>
+      <c r="M3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13" t="s">
+      <c r="N3" s="29"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="Q3" s="29"/>
+      <c r="R3" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13" t="s">
+      <c r="S3" s="29"/>
+      <c r="T3" s="29"/>
+      <c r="U3" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13" t="s">
+      <c r="V3" s="29"/>
+      <c r="W3" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13" t="s">
+      <c r="X3" s="29"/>
+      <c r="Y3" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13" t="s">
+      <c r="Z3" s="29"/>
+      <c r="AA3" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="13"/>
-      <c r="AC3" s="13" t="s">
+      <c r="AB3" s="29"/>
+      <c r="AC3" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="AD3" s="13"/>
-      <c r="AE3" s="13"/>
-      <c r="AF3" s="13"/>
-      <c r="AG3" s="13"/>
-      <c r="AH3" s="13"/>
-      <c r="AI3" s="13"/>
-      <c r="AJ3" s="13"/>
-      <c r="AK3" s="13" t="s">
+      <c r="AD3" s="29"/>
+      <c r="AE3" s="29"/>
+      <c r="AF3" s="29"/>
+      <c r="AG3" s="29"/>
+      <c r="AH3" s="29"/>
+      <c r="AI3" s="29"/>
+      <c r="AJ3" s="29"/>
+      <c r="AK3" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="34" t="s">
+      <c r="AL3" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="35" t="s">
+      <c r="AM3" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="43"/>
+      <c r="AN3" s="41"/>
+      <c r="AO3" s="41"/>
+      <c r="AP3" s="41"/>
+      <c r="AQ3" s="41"/>
+      <c r="AR3" s="41"/>
+      <c r="AS3" s="41"/>
+      <c r="AT3" s="41"/>
+      <c r="AU3" s="41"/>
+      <c r="AV3" s="42"/>
     </row>
-    <row r="4" s="7" customFormat="1" spans="2:48">
-      <c r="B4" s="14"/>
-      <c r="C4" s="15" t="s">
+    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B4" s="38"/>
+      <c r="C4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="15"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="15"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15" t="s">
+      <c r="J4" s="30"/>
+      <c r="K4" s="30"/>
+      <c r="L4" s="30"/>
+      <c r="M4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15" t="s">
+      <c r="N4" s="30"/>
+      <c r="O4" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="15" t="s">
+      <c r="Q4" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="R4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15" t="s">
+      <c r="S4" s="30"/>
+      <c r="T4" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="15"/>
-      <c r="X4" s="15"/>
-      <c r="Y4" s="15"/>
-      <c r="Z4" s="15"/>
-      <c r="AA4" s="15"/>
-      <c r="AB4" s="15"/>
-      <c r="AC4" s="15"/>
-      <c r="AD4" s="15"/>
-      <c r="AE4" s="15"/>
-      <c r="AF4" s="15"/>
-      <c r="AG4" s="15"/>
-      <c r="AH4" s="15"/>
-      <c r="AI4" s="15"/>
-      <c r="AJ4" s="15"/>
-      <c r="AK4" s="15"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
+      <c r="U4" s="30"/>
+      <c r="V4" s="30"/>
+      <c r="W4" s="30"/>
+      <c r="X4" s="30"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="30"/>
+      <c r="AG4" s="30"/>
+      <c r="AH4" s="30"/>
+      <c r="AI4" s="30"/>
+      <c r="AJ4" s="30"/>
+      <c r="AK4" s="30"/>
+      <c r="AL4" s="40"/>
+      <c r="AM4" s="43"/>
+      <c r="AN4" s="43"/>
+      <c r="AO4" s="43"/>
+      <c r="AP4" s="43"/>
+      <c r="AQ4" s="43"/>
+      <c r="AR4" s="43"/>
+      <c r="AS4" s="43"/>
+      <c r="AT4" s="43"/>
+      <c r="AU4" s="43"/>
       <c r="AV4" s="44"/>
     </row>
-    <row r="5" s="7" customFormat="1" spans="2:48">
-      <c r="B5" s="14"/>
-      <c r="C5" s="15" t="s">
+    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B5" s="38"/>
+      <c r="C5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15" t="s">
+      <c r="D5" s="30"/>
+      <c r="E5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15" t="s">
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15" t="s">
+      <c r="J5" s="30"/>
+      <c r="K5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="15"/>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="30"/>
+      <c r="M5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="N5" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-      <c r="T5" s="15"/>
-      <c r="U5" s="15" t="s">
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="15" t="s">
+      <c r="V5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="15" t="s">
+      <c r="W5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="15" t="s">
+      <c r="X5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="15" t="s">
+      <c r="Y5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="15" t="s">
+      <c r="Z5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="15" t="s">
+      <c r="AA5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="15" t="s">
+      <c r="AB5" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" s="15" t="s">
+      <c r="AC5" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AD5" s="15"/>
-      <c r="AE5" s="15"/>
-      <c r="AF5" s="15"/>
-      <c r="AG5" s="15" t="s">
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="15"/>
-      <c r="AI5" s="15"/>
-      <c r="AJ5" s="15"/>
-      <c r="AK5" s="15"/>
-      <c r="AL5" s="36"/>
-      <c r="AM5" s="15" t="s">
+      <c r="AH5" s="30"/>
+      <c r="AI5" s="30"/>
+      <c r="AJ5" s="30"/>
+      <c r="AK5" s="30"/>
+      <c r="AL5" s="40"/>
+      <c r="AM5" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="AN5" s="15" t="s">
+      <c r="AN5" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="AO5" s="15" t="s">
+      <c r="AO5" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="AP5" s="15" t="s">
+      <c r="AP5" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="AQ5" s="15" t="s">
+      <c r="AQ5" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="AR5" s="15" t="s">
+      <c r="AR5" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="AS5" s="15" t="s">
+      <c r="AS5" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AT5" s="15" t="s">
+      <c r="AT5" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AU5" s="15" t="s">
+      <c r="AU5" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AV5" s="45" t="s">
+      <c r="AV5" s="24" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" s="7" customFormat="1" ht="22.5" spans="2:48">
-      <c r="B6" s="14"/>
-      <c r="C6" s="15" t="s">
+    <row r="6" spans="1:48" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="38"/>
+      <c r="C6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="15" t="s">
+      <c r="L6" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="31" t="s">
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="15" t="s">
+      <c r="S6" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="15" t="s">
+      <c r="T6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15" t="s">
+      <c r="U6" s="30"/>
+      <c r="V6" s="30"/>
+      <c r="W6" s="30"/>
+      <c r="X6" s="30"/>
+      <c r="Y6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="15" t="s">
+      <c r="AA6" s="11" t="s">
         <v>41</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC6" s="15">
+      <c r="AC6" s="11">
         <v>1</v>
       </c>
-      <c r="AD6" s="15">
+      <c r="AD6" s="11">
         <v>2</v>
       </c>
-      <c r="AE6" s="15">
+      <c r="AE6" s="11">
         <v>3</v>
       </c>
-      <c r="AF6" s="15">
+      <c r="AF6" s="11">
         <v>4</v>
       </c>
-      <c r="AG6" s="15">
+      <c r="AG6" s="11">
         <v>1</v>
       </c>
-      <c r="AH6" s="15">
+      <c r="AH6" s="11">
         <v>2</v>
       </c>
-      <c r="AI6" s="15">
+      <c r="AI6" s="11">
         <v>3</v>
       </c>
-      <c r="AJ6" s="15">
+      <c r="AJ6" s="11">
         <v>4</v>
       </c>
       <c r="AK6" s="2" t="s">
@@ -2784,40 +2205,40 @@
       <c r="AL6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AM6" s="15" t="s">
+      <c r="AM6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AN6" s="15" t="s">
+      <c r="AN6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AO6" s="15" t="s">
+      <c r="AO6" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="AP6" s="15" t="s">
+      <c r="AP6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AQ6" s="15" t="s">
+      <c r="AQ6" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="AR6" s="15" t="s">
+      <c r="AR6" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="AS6" s="15" t="s">
+      <c r="AS6" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="AT6" s="15" t="s">
+      <c r="AT6" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="AU6" s="15" t="s">
+      <c r="AU6" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="AV6" s="45" t="s">
+      <c r="AV6" s="24" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" s="7" customFormat="1" ht="56.25" spans="1:48">
-      <c r="A7" s="16"/>
-      <c r="B7" s="17" t="s">
+    <row r="7" spans="1:48" ht="56.25" x14ac:dyDescent="0.15">
+      <c r="A7" s="12"/>
+      <c r="B7" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2959,8 +2380,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" s="7" customFormat="1" spans="2:48">
-      <c r="B8" s="18">
+    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B8" s="14">
         <v>0</v>
       </c>
       <c r="C8" s="5" t="str">
@@ -3148,9 +2569,9 @@
         <v/>
       </c>
     </row>
-    <row r="9" s="7" customFormat="1" spans="2:48">
-      <c r="B9" s="18">
-        <v>0.0208333333333333</v>
+    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B9" s="14">
+        <v>2.0833333333333301E-2</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A3="","",_jiaore6_day_hour!A3)</f>
@@ -3332,14 +2753,14 @@
         <f>IF(_jiaore6_day_hour!AS3="","",_jiaore6_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV9" s="46" t="str">
+      <c r="AV9" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT3="","",_jiaore6_day_hour!AT3)</f>
         <v/>
       </c>
     </row>
-    <row r="10" s="7" customFormat="1" ht="14.1" customHeight="1" spans="2:48">
-      <c r="B10" s="18">
-        <v>0.0416666666666667</v>
+    <row r="10" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="14">
+        <v>4.1666666666666699E-2</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>IF(_jiaore6_day_hour!A4="","",_jiaore6_day_hour!A4)</f>
@@ -3501,325 +2922,325 @@
         <f>IF(_jiaore6_day_hour!AN4="","",_jiaore6_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="21" t="str">
+      <c r="AQ10" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AO4="","",_jiaore6_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR10" s="21" t="str">
+      <c r="AR10" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AP4="","",_jiaore6_day_hour!AP4)</f>
         <v/>
       </c>
-      <c r="AS10" s="21" t="str">
+      <c r="AS10" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AQ4="","",_jiaore6_day_hour!AQ4)</f>
         <v/>
       </c>
-      <c r="AT10" s="21" t="str">
+      <c r="AT10" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AR4="","",_jiaore6_day_hour!AR4)</f>
         <v/>
       </c>
-      <c r="AU10" s="21" t="str">
+      <c r="AU10" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AS4="","",_jiaore6_day_hour!AS4)</f>
         <v/>
       </c>
-      <c r="AV10" s="46" t="str">
+      <c r="AV10" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT4="","",_jiaore6_day_hour!AT4)</f>
         <v/>
       </c>
     </row>
-    <row r="11" s="7" customFormat="1" spans="2:48">
-      <c r="B11" s="18">
-        <v>0.0625</v>
-      </c>
-      <c r="C11" s="19" t="str">
+    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B11" s="14">
+        <v>6.25E-2</v>
+      </c>
+      <c r="C11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!A5="","",_jiaore6_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="19" t="str">
+      <c r="D11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!B5="","",_jiaore6_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="19" t="str">
+      <c r="E11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!C5="","",_jiaore6_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="19" t="str">
+      <c r="F11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!D5="","",_jiaore6_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="19" t="str">
+      <c r="G11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!E5="","",_jiaore6_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="19" t="str">
+      <c r="H11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!F5="","",_jiaore6_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="19" t="str">
+      <c r="I11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!G5="","",_jiaore6_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="19" t="str">
+      <c r="J11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!H5="","",_jiaore6_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="19" t="str">
+      <c r="K11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!I5="","",_jiaore6_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="19" t="str">
+      <c r="L11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!J5="","",_jiaore6_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="19" t="str">
+      <c r="M11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!K5="","",_jiaore6_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="19" t="str">
+      <c r="N11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!L5="","",_jiaore6_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="19" t="str">
+      <c r="O11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!M5="","",_jiaore6_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="19" t="str">
+      <c r="P11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!N5="","",_jiaore6_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="19" t="str">
+      <c r="Q11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!O5="","",_jiaore6_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="19" t="str">
+      <c r="R11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!P5="","",_jiaore6_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="19" t="str">
+      <c r="S11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!Q5="","",_jiaore6_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="19" t="str">
+      <c r="T11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!R5="","",_jiaore6_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="19" t="str">
+      <c r="U11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!S5="","",_jiaore6_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="19" t="str">
+      <c r="V11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!T5="","",_jiaore6_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="19" t="str">
+      <c r="W11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!U5="","",_jiaore6_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="19" t="str">
+      <c r="X11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!V5="","",_jiaore6_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="19" t="str">
+      <c r="Y11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!W5="","",_jiaore6_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="19" t="str">
+      <c r="Z11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!X5="","",_jiaore6_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="19" t="str">
+      <c r="AA11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!Y5="","",_jiaore6_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="19" t="str">
+      <c r="AB11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!Z5="","",_jiaore6_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="19" t="str">
+      <c r="AC11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AA5="","",_jiaore6_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="19" t="str">
+      <c r="AD11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AB5="","",_jiaore6_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="19" t="str">
+      <c r="AE11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AC5="","",_jiaore6_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="19" t="str">
+      <c r="AF11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AD5="","",_jiaore6_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="19" t="str">
+      <c r="AG11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AE5="","",_jiaore6_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="19" t="str">
+      <c r="AH11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AF5="","",_jiaore6_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="19" t="str">
+      <c r="AI11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AG5="","",_jiaore6_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="19" t="str">
+      <c r="AJ11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AH5="","",_jiaore6_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="19" t="str">
+      <c r="AK11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AI5="","",_jiaore6_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="19" t="str">
+      <c r="AL11" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AJ5="","",_jiaore6_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="38" t="str">
+      <c r="AM11" s="23" t="str">
         <f>IF(_jiaore6_day_hour!AK5="","",_jiaore6_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="38" t="str">
+      <c r="AN11" s="23" t="str">
         <f>IF(_jiaore6_day_hour!AL5="","",_jiaore6_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="38" t="str">
+      <c r="AO11" s="23" t="str">
         <f>IF(_jiaore6_day_hour!AM5="","",_jiaore6_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="21" t="str">
+      <c r="AP11" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AN5="","",_jiaore6_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="21" t="str">
+      <c r="AQ11" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AO5="","",_jiaore6_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR11" s="21" t="str">
+      <c r="AR11" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AP5="","",_jiaore6_day_hour!AP5)</f>
         <v/>
       </c>
-      <c r="AS11" s="21" t="str">
+      <c r="AS11" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AQ5="","",_jiaore6_day_hour!AQ5)</f>
         <v/>
       </c>
-      <c r="AT11" s="21" t="str">
+      <c r="AT11" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AR5="","",_jiaore6_day_hour!AR5)</f>
         <v/>
       </c>
-      <c r="AU11" s="21" t="str">
+      <c r="AU11" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AS5="","",_jiaore6_day_hour!AS5)</f>
         <v/>
       </c>
-      <c r="AV11" s="46" t="str">
+      <c r="AV11" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT5="","",_jiaore6_day_hour!AT5)</f>
         <v/>
       </c>
     </row>
-    <row r="12" s="7" customFormat="1" ht="14.1" customHeight="1" spans="2:48">
-      <c r="B12" s="18">
-        <v>0.0833333333333333</v>
-      </c>
-      <c r="C12" s="20" t="str">
+    <row r="12" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="14">
+        <v>8.3333333333333301E-2</v>
+      </c>
+      <c r="C12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!A6="","",_jiaore6_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="20" t="str">
+      <c r="D12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!B6="","",_jiaore6_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="20" t="str">
+      <c r="E12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!C6="","",_jiaore6_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="20" t="str">
+      <c r="F12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!D6="","",_jiaore6_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="20" t="str">
+      <c r="G12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!E6="","",_jiaore6_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="20" t="str">
+      <c r="H12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!F6="","",_jiaore6_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="20" t="str">
+      <c r="I12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!G6="","",_jiaore6_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="20" t="str">
+      <c r="J12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!H6="","",_jiaore6_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="20" t="str">
+      <c r="K12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!I6="","",_jiaore6_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="20" t="str">
+      <c r="L12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!J6="","",_jiaore6_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="20" t="str">
+      <c r="M12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!K6="","",_jiaore6_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="20" t="str">
+      <c r="N12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!L6="","",_jiaore6_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="20" t="str">
+      <c r="O12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!M6="","",_jiaore6_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="20" t="str">
+      <c r="P12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!N6="","",_jiaore6_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="20" t="str">
+      <c r="Q12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!O6="","",_jiaore6_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="20" t="str">
+      <c r="R12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!P6="","",_jiaore6_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="20" t="str">
+      <c r="S12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!Q6="","",_jiaore6_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="20" t="str">
+      <c r="T12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!R6="","",_jiaore6_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="20" t="str">
+      <c r="U12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!S6="","",_jiaore6_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="20" t="str">
+      <c r="V12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!T6="","",_jiaore6_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="20" t="str">
+      <c r="W12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!U6="","",_jiaore6_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="20" t="str">
+      <c r="X12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!V6="","",_jiaore6_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="20" t="str">
+      <c r="Y12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!W6="","",_jiaore6_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="20" t="str">
+      <c r="Z12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!X6="","",_jiaore6_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="20" t="str">
+      <c r="AA12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!Y6="","",_jiaore6_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="20" t="str">
+      <c r="AB12" s="16" t="str">
         <f>IF(_jiaore6_day_hour!Z6="","",_jiaore6_day_hour!Z6)</f>
         <v/>
       </c>
@@ -3855,11 +3276,11 @@
         <f>IF(_jiaore6_day_hour!AH6="","",_jiaore6_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="19" t="str">
+      <c r="AK12" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AI6="","",_jiaore6_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="19" t="str">
+      <c r="AL12" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AJ6="","",_jiaore6_day_hour!AJ6)</f>
         <v/>
       </c>
@@ -3875,180 +3296,180 @@
         <f>IF(_jiaore6_day_hour!AM6="","",_jiaore6_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="21" t="str">
+      <c r="AP12" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AN6="","",_jiaore6_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="21" t="str">
+      <c r="AQ12" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AO6="","",_jiaore6_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="AR12" s="21" t="str">
+      <c r="AR12" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AP6="","",_jiaore6_day_hour!AP6)</f>
         <v/>
       </c>
-      <c r="AS12" s="21" t="str">
+      <c r="AS12" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AQ6="","",_jiaore6_day_hour!AQ6)</f>
         <v/>
       </c>
-      <c r="AT12" s="21" t="str">
+      <c r="AT12" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AR6="","",_jiaore6_day_hour!AR6)</f>
         <v/>
       </c>
-      <c r="AU12" s="21" t="str">
+      <c r="AU12" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AS6="","",_jiaore6_day_hour!AS6)</f>
         <v/>
       </c>
-      <c r="AV12" s="46" t="str">
+      <c r="AV12" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT6="","",_jiaore6_day_hour!AT6)</f>
         <v/>
       </c>
     </row>
-    <row r="13" s="7" customFormat="1" spans="2:48">
-      <c r="B13" s="18">
+    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B13" s="14">
         <v>0.104166666666667</v>
       </c>
-      <c r="C13" s="19" t="str">
+      <c r="C13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!A7="","",_jiaore6_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="19" t="str">
+      <c r="D13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!B7="","",_jiaore6_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="19" t="str">
+      <c r="E13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!C7="","",_jiaore6_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="19" t="str">
+      <c r="F13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!D7="","",_jiaore6_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="19" t="str">
+      <c r="G13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!E7="","",_jiaore6_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="19" t="str">
+      <c r="H13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!F7="","",_jiaore6_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="19" t="str">
+      <c r="I13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!G7="","",_jiaore6_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="19" t="str">
+      <c r="J13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!H7="","",_jiaore6_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="19" t="str">
+      <c r="K13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!I7="","",_jiaore6_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="19" t="str">
+      <c r="L13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!J7="","",_jiaore6_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="19" t="str">
+      <c r="M13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!K7="","",_jiaore6_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="19" t="str">
+      <c r="N13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!L7="","",_jiaore6_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="19" t="str">
+      <c r="O13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!M7="","",_jiaore6_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="19" t="str">
+      <c r="P13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!N7="","",_jiaore6_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="19" t="str">
+      <c r="Q13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!O7="","",_jiaore6_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="19" t="str">
+      <c r="R13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!P7="","",_jiaore6_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="19" t="str">
+      <c r="S13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!Q7="","",_jiaore6_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="19" t="str">
+      <c r="T13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!R7="","",_jiaore6_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="19" t="str">
+      <c r="U13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!S7="","",_jiaore6_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="19" t="str">
+      <c r="V13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!T7="","",_jiaore6_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="19" t="str">
+      <c r="W13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!U7="","",_jiaore6_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="19" t="str">
+      <c r="X13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!V7="","",_jiaore6_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="19" t="str">
+      <c r="Y13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!W7="","",_jiaore6_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="19" t="str">
+      <c r="Z13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!X7="","",_jiaore6_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="19" t="str">
+      <c r="AA13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!Y7="","",_jiaore6_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="19" t="str">
+      <c r="AB13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!Z7="","",_jiaore6_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="19" t="str">
+      <c r="AC13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AA7="","",_jiaore6_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="19" t="str">
+      <c r="AD13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AB7="","",_jiaore6_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="19" t="str">
+      <c r="AE13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AC7="","",_jiaore6_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="19" t="str">
+      <c r="AF13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AD7="","",_jiaore6_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="19" t="str">
+      <c r="AG13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AE7="","",_jiaore6_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="19" t="str">
+      <c r="AH13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AF7="","",_jiaore6_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="19" t="str">
+      <c r="AI13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AG7="","",_jiaore6_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="19" t="str">
+      <c r="AJ13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AH7="","",_jiaore6_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="19" t="str">
+      <c r="AK13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AI7="","",_jiaore6_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="19" t="str">
+      <c r="AL13" s="15" t="str">
         <f>IF(_jiaore6_day_hour!AJ7="","",_jiaore6_day_hour!AJ7)</f>
         <v/>
       </c>
@@ -4064,180 +3485,180 @@
         <f>IF(_jiaore6_day_hour!AM7="","",_jiaore6_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="21" t="str">
+      <c r="AP13" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AN7="","",_jiaore6_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="21" t="str">
+      <c r="AQ13" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AO7="","",_jiaore6_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="AR13" s="21" t="str">
+      <c r="AR13" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AP7="","",_jiaore6_day_hour!AP7)</f>
         <v/>
       </c>
-      <c r="AS13" s="21" t="str">
+      <c r="AS13" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AQ7="","",_jiaore6_day_hour!AQ7)</f>
         <v/>
       </c>
-      <c r="AT13" s="21" t="str">
+      <c r="AT13" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AR7="","",_jiaore6_day_hour!AR7)</f>
         <v/>
       </c>
-      <c r="AU13" s="21" t="str">
+      <c r="AU13" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AS7="","",_jiaore6_day_hour!AS7)</f>
         <v/>
       </c>
-      <c r="AV13" s="46" t="str">
+      <c r="AV13" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT7="","",_jiaore6_day_hour!AT7)</f>
         <v/>
       </c>
     </row>
-    <row r="14" s="7" customFormat="1" spans="2:48">
-      <c r="B14" s="18">
+    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B14" s="14">
         <v>0.125</v>
       </c>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!A8="","",_jiaore6_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="21" t="str">
+      <c r="D14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!B8="","",_jiaore6_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="21" t="str">
+      <c r="E14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!C8="","",_jiaore6_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="21" t="str">
+      <c r="F14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!D8="","",_jiaore6_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="21" t="str">
+      <c r="G14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!E8="","",_jiaore6_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="21" t="str">
+      <c r="H14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!F8="","",_jiaore6_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="21" t="str">
+      <c r="I14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!G8="","",_jiaore6_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="21" t="str">
+      <c r="J14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!H8="","",_jiaore6_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="21" t="str">
+      <c r="K14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!I8="","",_jiaore6_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="21" t="str">
+      <c r="L14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!J8="","",_jiaore6_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="21" t="str">
+      <c r="M14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!K8="","",_jiaore6_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="21" t="str">
+      <c r="N14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!L8="","",_jiaore6_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="21" t="str">
+      <c r="O14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!M8="","",_jiaore6_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="21" t="str">
+      <c r="P14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!N8="","",_jiaore6_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="21" t="str">
+      <c r="Q14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!O8="","",_jiaore6_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="21" t="str">
+      <c r="R14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!P8="","",_jiaore6_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="21" t="str">
+      <c r="S14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!Q8="","",_jiaore6_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="21" t="str">
+      <c r="T14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!R8="","",_jiaore6_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="21" t="str">
+      <c r="U14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!S8="","",_jiaore6_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="21" t="str">
+      <c r="V14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!T8="","",_jiaore6_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="21" t="str">
+      <c r="W14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!U8="","",_jiaore6_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="21" t="str">
+      <c r="X14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!V8="","",_jiaore6_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="21" t="str">
+      <c r="Y14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!W8="","",_jiaore6_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="21" t="str">
+      <c r="Z14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!X8="","",_jiaore6_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="21" t="str">
+      <c r="AA14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!Y8="","",_jiaore6_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="21" t="str">
+      <c r="AB14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!Z8="","",_jiaore6_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="21" t="str">
+      <c r="AC14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AA8="","",_jiaore6_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="21" t="str">
+      <c r="AD14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AB8="","",_jiaore6_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="21" t="str">
+      <c r="AE14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AC8="","",_jiaore6_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="21" t="str">
+      <c r="AF14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AD8="","",_jiaore6_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="21" t="str">
+      <c r="AG14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AE8="","",_jiaore6_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="21" t="str">
+      <c r="AH14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AF8="","",_jiaore6_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="21" t="str">
+      <c r="AI14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AG8="","",_jiaore6_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="21" t="str">
+      <c r="AJ14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AH8="","",_jiaore6_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="21" t="str">
+      <c r="AK14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AI8="","",_jiaore6_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="21" t="str">
+      <c r="AL14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AJ8="","",_jiaore6_day_hour!AJ8)</f>
         <v/>
       </c>
@@ -4253,38 +3674,38 @@
         <f>IF(_jiaore6_day_hour!AM8="","",_jiaore6_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="21" t="str">
+      <c r="AP14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AN8="","",_jiaore6_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="21" t="str">
+      <c r="AQ14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AO8="","",_jiaore6_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="AR14" s="21" t="str">
+      <c r="AR14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AP8="","",_jiaore6_day_hour!AP8)</f>
         <v/>
       </c>
-      <c r="AS14" s="21" t="str">
+      <c r="AS14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AQ8="","",_jiaore6_day_hour!AQ8)</f>
         <v/>
       </c>
-      <c r="AT14" s="21" t="str">
+      <c r="AT14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AR8="","",_jiaore6_day_hour!AR8)</f>
         <v/>
       </c>
-      <c r="AU14" s="21" t="str">
+      <c r="AU14" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AS8="","",_jiaore6_day_hour!AS8)</f>
         <v/>
       </c>
-      <c r="AV14" s="46" t="str">
+      <c r="AV14" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT8="","",_jiaore6_day_hour!AT8)</f>
         <v/>
       </c>
     </row>
-    <row r="15" s="7" customFormat="1" spans="2:48">
-      <c r="B15" s="18">
-        <v>0.145833333333333</v>
+    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B15" s="14">
+        <v>0.14583333333333301</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A9="","",_jiaore6_day_hour!A9)</f>
@@ -4442,38 +3863,38 @@
         <f>IF(_jiaore6_day_hour!AM9="","",_jiaore6_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="21" t="str">
+      <c r="AP15" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AN9="","",_jiaore6_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="21" t="str">
+      <c r="AQ15" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AO9="","",_jiaore6_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AR15" s="21" t="str">
+      <c r="AR15" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AP9="","",_jiaore6_day_hour!AP9)</f>
         <v/>
       </c>
-      <c r="AS15" s="21" t="str">
+      <c r="AS15" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AQ9="","",_jiaore6_day_hour!AQ9)</f>
         <v/>
       </c>
-      <c r="AT15" s="21" t="str">
+      <c r="AT15" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AR9="","",_jiaore6_day_hour!AR9)</f>
         <v/>
       </c>
-      <c r="AU15" s="21" t="str">
+      <c r="AU15" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AS9="","",_jiaore6_day_hour!AS9)</f>
         <v/>
       </c>
-      <c r="AV15" s="46" t="str">
+      <c r="AV15" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT9="","",_jiaore6_day_hour!AT9)</f>
         <v/>
       </c>
     </row>
-    <row r="16" s="7" customFormat="1" spans="2:48">
-      <c r="B16" s="18">
-        <v>0.166666666666667</v>
+    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
+      <c r="B16" s="14">
+        <v>0.16666666666666699</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A10="","",_jiaore6_day_hour!A10)</f>
@@ -4635,33 +4056,33 @@
         <f>IF(_jiaore6_day_hour!AN10="","",_jiaore6_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="21" t="str">
+      <c r="AQ16" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AO10="","",_jiaore6_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AR16" s="21" t="str">
+      <c r="AR16" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AP10="","",_jiaore6_day_hour!AP10)</f>
         <v/>
       </c>
-      <c r="AS16" s="21" t="str">
+      <c r="AS16" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AQ10="","",_jiaore6_day_hour!AQ10)</f>
         <v/>
       </c>
-      <c r="AT16" s="21" t="str">
+      <c r="AT16" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AR10="","",_jiaore6_day_hour!AR10)</f>
         <v/>
       </c>
-      <c r="AU16" s="21" t="str">
+      <c r="AU16" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AS10="","",_jiaore6_day_hour!AS10)</f>
         <v/>
       </c>
-      <c r="AV16" s="46" t="str">
+      <c r="AV16" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT10="","",_jiaore6_day_hour!AT10)</f>
         <v/>
       </c>
     </row>
-    <row r="17" s="7" customFormat="1" spans="2:48">
-      <c r="B17" s="18">
+    <row r="17" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B17" s="14">
         <v>0.1875</v>
       </c>
       <c r="C17" s="5" t="str">
@@ -4840,18 +4261,18 @@
         <f>IF(_jiaore6_day_hour!AR11="","",_jiaore6_day_hour!AR11)</f>
         <v/>
       </c>
-      <c r="AU17" s="21" t="str">
+      <c r="AU17" s="17" t="str">
         <f>IF(_jiaore6_day_hour!AS11="","",_jiaore6_day_hour!AS11)</f>
         <v/>
       </c>
-      <c r="AV17" s="46" t="str">
+      <c r="AV17" s="25" t="str">
         <f>IF(_jiaore6_day_hour!AT11="","",_jiaore6_day_hour!AT11)</f>
         <v/>
       </c>
     </row>
-    <row r="18" s="7" customFormat="1" spans="2:48">
-      <c r="B18" s="18">
-        <v>0.208333333333333</v>
+    <row r="18" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B18" s="14">
+        <v>0.20833333333333301</v>
       </c>
       <c r="C18" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A12="","",_jiaore6_day_hour!A12)</f>
@@ -5038,9 +4459,9 @@
         <v/>
       </c>
     </row>
-    <row r="19" s="7" customFormat="1" spans="2:48">
-      <c r="B19" s="18">
-        <v>0.229166666666667</v>
+    <row r="19" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B19" s="14">
+        <v>0.22916666666666699</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A13="","",_jiaore6_day_hour!A13)</f>
@@ -5227,8 +4648,8 @@
         <v/>
       </c>
     </row>
-    <row r="20" s="7" customFormat="1" spans="2:48">
-      <c r="B20" s="18">
+    <row r="20" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B20" s="14">
         <v>0.25</v>
       </c>
       <c r="C20" s="5" t="str">
@@ -5416,9 +4837,9 @@
         <v/>
       </c>
     </row>
-    <row r="21" s="7" customFormat="1" spans="2:48">
-      <c r="B21" s="18">
-        <v>0.270833333333333</v>
+    <row r="21" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B21" s="14">
+        <v>0.27083333333333298</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A15="","",_jiaore6_day_hour!A15)</f>
@@ -5605,9 +5026,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" s="7" customFormat="1" spans="2:48">
-      <c r="B22" s="18">
-        <v>0.291666666666667</v>
+    <row r="22" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B22" s="14">
+        <v>0.29166666666666702</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A16="","",_jiaore6_day_hour!A16)</f>
@@ -5794,8 +5215,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" s="7" customFormat="1" spans="2:48">
-      <c r="B23" s="18">
+    <row r="23" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B23" s="14">
         <v>0.3125</v>
       </c>
       <c r="C23" s="5" t="str">
@@ -5983,9 +5404,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" s="7" customFormat="1" spans="2:48">
-      <c r="B24" s="18">
-        <v>0.333333333333333</v>
+    <row r="24" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B24" s="14">
+        <v>0.33333333333333298</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A18="","",_jiaore6_day_hour!A18)</f>
@@ -6172,9 +5593,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" s="7" customFormat="1" spans="2:48">
-      <c r="B25" s="18">
-        <v>0.354166666666667</v>
+    <row r="25" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B25" s="14">
+        <v>0.35416666666666702</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A19="","",_jiaore6_day_hour!A19)</f>
@@ -6361,8 +5782,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" s="7" customFormat="1" spans="2:48">
-      <c r="B26" s="18">
+    <row r="26" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B26" s="14">
         <v>0.375</v>
       </c>
       <c r="C26" s="5" t="str">
@@ -6550,9 +5971,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" s="7" customFormat="1" spans="2:48">
-      <c r="B27" s="18">
-        <v>0.395833333333333</v>
+    <row r="27" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B27" s="14">
+        <v>0.39583333333333298</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A21="","",_jiaore6_day_hour!A21)</f>
@@ -6739,9 +6160,9 @@
         <v/>
       </c>
     </row>
-    <row r="28" s="7" customFormat="1" spans="2:48">
-      <c r="B28" s="18">
-        <v>0.416666666666667</v>
+    <row r="28" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B28" s="14">
+        <v>0.41666666666666702</v>
       </c>
       <c r="C28" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A22="","",_jiaore6_day_hour!A22)</f>
@@ -6928,8 +6349,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" s="7" customFormat="1" spans="2:48">
-      <c r="B29" s="18">
+    <row r="29" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B29" s="14">
         <v>0.4375</v>
       </c>
       <c r="C29" s="5" t="str">
@@ -7117,9 +6538,9 @@
         <v/>
       </c>
     </row>
-    <row r="30" s="7" customFormat="1" spans="2:48">
-      <c r="B30" s="18">
-        <v>0.458333333333333</v>
+    <row r="30" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B30" s="14">
+        <v>0.45833333333333298</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A24="","",_jiaore6_day_hour!A24)</f>
@@ -7306,9 +6727,9 @@
         <v/>
       </c>
     </row>
-    <row r="31" s="7" customFormat="1" spans="2:48">
-      <c r="B31" s="18">
-        <v>0.479166666666667</v>
+    <row r="31" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B31" s="14">
+        <v>0.47916666666666702</v>
       </c>
       <c r="C31" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A25="","",_jiaore6_day_hour!A25)</f>
@@ -7495,8 +6916,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" s="7" customFormat="1" spans="2:48">
-      <c r="B32" s="18">
+    <row r="32" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B32" s="14">
         <v>0.5</v>
       </c>
       <c r="C32" s="5" t="str">
@@ -7684,9 +7105,9 @@
         <v/>
       </c>
     </row>
-    <row r="33" s="7" customFormat="1" spans="2:48">
-      <c r="B33" s="18">
-        <v>0.520833333333333</v>
+    <row r="33" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B33" s="14">
+        <v>0.52083333333333304</v>
       </c>
       <c r="C33" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A27="","",_jiaore6_day_hour!A27)</f>
@@ -7873,9 +7294,9 @@
         <v/>
       </c>
     </row>
-    <row r="34" s="7" customFormat="1" spans="2:48">
-      <c r="B34" s="18">
-        <v>0.541666666666667</v>
+    <row r="34" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B34" s="14">
+        <v>0.54166666666666696</v>
       </c>
       <c r="C34" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A28="","",_jiaore6_day_hour!A28)</f>
@@ -8062,8 +7483,8 @@
         <v/>
       </c>
     </row>
-    <row r="35" s="7" customFormat="1" spans="2:48">
-      <c r="B35" s="18">
+    <row r="35" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B35" s="14">
         <v>0.5625</v>
       </c>
       <c r="C35" s="5" t="str">
@@ -8251,9 +7672,9 @@
         <v/>
       </c>
     </row>
-    <row r="36" s="7" customFormat="1" spans="2:48">
-      <c r="B36" s="18">
-        <v>0.583333333333333</v>
+    <row r="36" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B36" s="14">
+        <v>0.58333333333333304</v>
       </c>
       <c r="C36" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A30="","",_jiaore6_day_hour!A30)</f>
@@ -8440,9 +7861,9 @@
         <v/>
       </c>
     </row>
-    <row r="37" s="7" customFormat="1" spans="2:48">
-      <c r="B37" s="18">
-        <v>0.604166666666667</v>
+    <row r="37" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B37" s="14">
+        <v>0.60416666666666696</v>
       </c>
       <c r="C37" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A31="","",_jiaore6_day_hour!A31)</f>
@@ -8629,8 +8050,8 @@
         <v/>
       </c>
     </row>
-    <row r="38" s="7" customFormat="1" spans="2:48">
-      <c r="B38" s="18">
+    <row r="38" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B38" s="14">
         <v>0.625</v>
       </c>
       <c r="C38" s="5" t="str">
@@ -8818,9 +8239,9 @@
         <v/>
       </c>
     </row>
-    <row r="39" s="7" customFormat="1" spans="2:48">
-      <c r="B39" s="18">
-        <v>0.645833333333333</v>
+    <row r="39" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B39" s="14">
+        <v>0.64583333333333304</v>
       </c>
       <c r="C39" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A33="","",_jiaore6_day_hour!A33)</f>
@@ -9007,9 +8428,9 @@
         <v/>
       </c>
     </row>
-    <row r="40" s="7" customFormat="1" spans="2:48">
-      <c r="B40" s="18">
-        <v>0.666666666666667</v>
+    <row r="40" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B40" s="14">
+        <v>0.66666666666666696</v>
       </c>
       <c r="C40" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A34="","",_jiaore6_day_hour!A34)</f>
@@ -9196,8 +8617,8 @@
         <v/>
       </c>
     </row>
-    <row r="41" s="7" customFormat="1" spans="2:48">
-      <c r="B41" s="18">
+    <row r="41" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B41" s="14">
         <v>0.6875</v>
       </c>
       <c r="C41" s="5" t="str">
@@ -9385,9 +8806,9 @@
         <v/>
       </c>
     </row>
-    <row r="42" s="7" customFormat="1" spans="2:48">
-      <c r="B42" s="18">
-        <v>0.708333333333333</v>
+    <row r="42" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B42" s="14">
+        <v>0.70833333333333304</v>
       </c>
       <c r="C42" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A36="","",_jiaore6_day_hour!A36)</f>
@@ -9574,9 +8995,9 @@
         <v/>
       </c>
     </row>
-    <row r="43" s="7" customFormat="1" spans="2:48">
-      <c r="B43" s="18">
-        <v>0.729166666666667</v>
+    <row r="43" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B43" s="14">
+        <v>0.72916666666666696</v>
       </c>
       <c r="C43" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A37="","",_jiaore6_day_hour!A37)</f>
@@ -9763,8 +9184,8 @@
         <v/>
       </c>
     </row>
-    <row r="44" s="7" customFormat="1" spans="2:48">
-      <c r="B44" s="18">
+    <row r="44" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B44" s="14">
         <v>0.75</v>
       </c>
       <c r="C44" s="5" t="str">
@@ -9952,9 +9373,9 @@
         <v/>
       </c>
     </row>
-    <row r="45" s="7" customFormat="1" spans="2:48">
-      <c r="B45" s="18">
-        <v>0.770833333333333</v>
+    <row r="45" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B45" s="14">
+        <v>0.77083333333333304</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A39="","",_jiaore6_day_hour!A39)</f>
@@ -10141,9 +9562,9 @@
         <v/>
       </c>
     </row>
-    <row r="46" s="7" customFormat="1" spans="2:48">
-      <c r="B46" s="18">
-        <v>0.791666666666667</v>
+    <row r="46" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B46" s="14">
+        <v>0.79166666666666696</v>
       </c>
       <c r="C46" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A40="","",_jiaore6_day_hour!A40)</f>
@@ -10330,8 +9751,8 @@
         <v/>
       </c>
     </row>
-    <row r="47" s="7" customFormat="1" spans="2:48">
-      <c r="B47" s="18">
+    <row r="47" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B47" s="14">
         <v>0.8125</v>
       </c>
       <c r="C47" s="5" t="str">
@@ -10519,9 +9940,9 @@
         <v/>
       </c>
     </row>
-    <row r="48" s="7" customFormat="1" spans="2:48">
-      <c r="B48" s="18">
-        <v>0.833333333333333</v>
+    <row r="48" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B48" s="14">
+        <v>0.83333333333333304</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A42="","",_jiaore6_day_hour!A42)</f>
@@ -10708,9 +10129,9 @@
         <v/>
       </c>
     </row>
-    <row r="49" s="7" customFormat="1" spans="2:48">
-      <c r="B49" s="18">
-        <v>0.854166666666667</v>
+    <row r="49" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B49" s="14">
+        <v>0.85416666666666696</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A43="","",_jiaore6_day_hour!A43)</f>
@@ -10897,8 +10318,8 @@
         <v/>
       </c>
     </row>
-    <row r="50" s="7" customFormat="1" spans="2:48">
-      <c r="B50" s="18">
+    <row r="50" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B50" s="14">
         <v>0.875</v>
       </c>
       <c r="C50" s="5" t="str">
@@ -11086,9 +10507,9 @@
         <v/>
       </c>
     </row>
-    <row r="51" s="7" customFormat="1" spans="2:48">
-      <c r="B51" s="18">
-        <v>0.895833333333333</v>
+    <row r="51" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B51" s="14">
+        <v>0.89583333333333304</v>
       </c>
       <c r="C51" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A45="","",_jiaore6_day_hour!A45)</f>
@@ -11275,9 +10696,9 @@
         <v/>
       </c>
     </row>
-    <row r="52" s="7" customFormat="1" spans="2:48">
-      <c r="B52" s="18">
-        <v>0.916666666666666</v>
+    <row r="52" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B52" s="14">
+        <v>0.91666666666666596</v>
       </c>
       <c r="C52" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A46="","",_jiaore6_day_hour!A46)</f>
@@ -11464,8 +10885,8 @@
         <v/>
       </c>
     </row>
-    <row r="53" s="7" customFormat="1" spans="2:48">
-      <c r="B53" s="18">
+    <row r="53" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B53" s="14">
         <v>0.937499999999999</v>
       </c>
       <c r="C53" s="5" t="str">
@@ -11653,9 +11074,9 @@
         <v/>
       </c>
     </row>
-    <row r="54" s="7" customFormat="1" spans="2:48">
-      <c r="B54" s="18">
-        <v>0.958333333333332</v>
+    <row r="54" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B54" s="14">
+        <v>0.95833333333333204</v>
       </c>
       <c r="C54" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A48="","",_jiaore6_day_hour!A48)</f>
@@ -11842,9 +11263,9 @@
         <v/>
       </c>
     </row>
-    <row r="55" s="7" customFormat="1" spans="2:48">
-      <c r="B55" s="18">
-        <v>0.979166666666665</v>
+    <row r="55" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B55" s="14">
+        <v>0.97916666666666496</v>
       </c>
       <c r="C55" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A49="","",_jiaore6_day_hour!A49)</f>
@@ -12031,8 +11452,8 @@
         <v/>
       </c>
     </row>
-    <row r="56" s="7" customFormat="1" spans="2:48">
-      <c r="B56" s="22" t="s">
+    <row r="56" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B56" s="18" t="s">
         <v>96</v>
       </c>
       <c r="C56" s="5"/>
@@ -12082,8 +11503,8 @@
       <c r="AU56" s="5"/>
       <c r="AV56" s="6"/>
     </row>
-    <row r="57" s="7" customFormat="1" spans="2:48">
-      <c r="B57" s="22" t="s">
+    <row r="57" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B57" s="18" t="s">
         <v>97</v>
       </c>
       <c r="C57" s="5"/>
@@ -12133,8 +11554,8 @@
       <c r="AU57" s="5"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" s="7" customFormat="1" spans="2:48">
-      <c r="B58" s="22" t="s">
+    <row r="58" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B58" s="18" t="s">
         <v>98</v>
       </c>
       <c r="C58" s="5"/>
@@ -12184,8 +11605,8 @@
       <c r="AU58" s="5"/>
       <c r="AV58" s="6"/>
     </row>
-    <row r="59" s="7" customFormat="1" spans="2:48">
-      <c r="B59" s="22" t="s">
+    <row r="59" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="B59" s="18" t="s">
         <v>99</v>
       </c>
       <c r="C59" s="5"/>
@@ -12235,140 +11656,130 @@
       <c r="AU59" s="5"/>
       <c r="AV59" s="6"/>
     </row>
-    <row r="60" s="7" customFormat="1" ht="72" customHeight="1" spans="2:48">
-      <c r="B60" s="23" t="s">
+    <row r="60" spans="2:48" ht="72" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B60" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="24"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="24"/>
-      <c r="L60" s="24"/>
-      <c r="M60" s="28" t="s">
+      <c r="C60" s="32"/>
+      <c r="D60" s="32"/>
+      <c r="E60" s="32"/>
+      <c r="F60" s="32"/>
+      <c r="G60" s="32"/>
+      <c r="H60" s="32"/>
+      <c r="I60" s="32"/>
+      <c r="J60" s="32"/>
+      <c r="K60" s="32"/>
+      <c r="L60" s="32"/>
+      <c r="M60" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="N60" s="24"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="24"/>
-      <c r="Q60" s="24"/>
-      <c r="R60" s="24"/>
-      <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
-      <c r="U60" s="24"/>
-      <c r="V60" s="24"/>
-      <c r="W60" s="24"/>
-      <c r="X60" s="28" t="s">
+      <c r="N60" s="32"/>
+      <c r="O60" s="32"/>
+      <c r="P60" s="32"/>
+      <c r="Q60" s="32"/>
+      <c r="R60" s="32"/>
+      <c r="S60" s="32"/>
+      <c r="T60" s="32"/>
+      <c r="U60" s="32"/>
+      <c r="V60" s="32"/>
+      <c r="W60" s="32"/>
+      <c r="X60" s="33" t="s">
         <v>102</v>
       </c>
-      <c r="Y60" s="24"/>
-      <c r="Z60" s="24"/>
-      <c r="AA60" s="24"/>
-      <c r="AB60" s="24"/>
-      <c r="AC60" s="24"/>
-      <c r="AD60" s="24"/>
-      <c r="AE60" s="24"/>
-      <c r="AF60" s="24"/>
-      <c r="AG60" s="24"/>
-      <c r="AH60" s="24"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="40"/>
-      <c r="AK60" s="40"/>
-      <c r="AL60" s="40"/>
-      <c r="AM60" s="40"/>
-      <c r="AN60" s="40"/>
-      <c r="AO60" s="40"/>
-      <c r="AP60" s="40"/>
-      <c r="AQ60" s="40"/>
-      <c r="AR60" s="40"/>
-      <c r="AS60" s="40"/>
-      <c r="AT60" s="40"/>
-      <c r="AU60" s="40"/>
+      <c r="Y60" s="32"/>
+      <c r="Z60" s="32"/>
+      <c r="AA60" s="32"/>
+      <c r="AB60" s="32"/>
+      <c r="AC60" s="32"/>
+      <c r="AD60" s="32"/>
+      <c r="AE60" s="32"/>
+      <c r="AF60" s="32"/>
+      <c r="AG60" s="32"/>
+      <c r="AH60" s="32"/>
+      <c r="AI60" s="45"/>
+      <c r="AJ60" s="46"/>
+      <c r="AK60" s="46"/>
+      <c r="AL60" s="46"/>
+      <c r="AM60" s="46"/>
+      <c r="AN60" s="46"/>
+      <c r="AO60" s="46"/>
+      <c r="AP60" s="46"/>
+      <c r="AQ60" s="46"/>
+      <c r="AR60" s="46"/>
+      <c r="AS60" s="46"/>
+      <c r="AT60" s="46"/>
+      <c r="AU60" s="46"/>
       <c r="AV60" s="47"/>
     </row>
-    <row r="61" s="7" customFormat="1" ht="14.45" customHeight="1" spans="2:48">
-      <c r="B61" s="25" t="s">
+    <row r="61" spans="2:48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="26"/>
-      <c r="D61" s="26"/>
-      <c r="E61" s="26"/>
-      <c r="F61" s="26"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="26"/>
-      <c r="I61" s="26"/>
-      <c r="J61" s="26"/>
-      <c r="K61" s="26"/>
-      <c r="L61" s="26"/>
-      <c r="M61" s="29" t="s">
+      <c r="C61" s="35"/>
+      <c r="D61" s="35"/>
+      <c r="E61" s="35"/>
+      <c r="F61" s="35"/>
+      <c r="G61" s="35"/>
+      <c r="H61" s="35"/>
+      <c r="I61" s="35"/>
+      <c r="J61" s="35"/>
+      <c r="K61" s="35"/>
+      <c r="L61" s="35"/>
+      <c r="M61" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="N61" s="26"/>
-      <c r="O61" s="26"/>
-      <c r="P61" s="26"/>
-      <c r="Q61" s="26"/>
-      <c r="R61" s="26"/>
-      <c r="S61" s="26"/>
-      <c r="T61" s="26"/>
-      <c r="U61" s="26"/>
-      <c r="V61" s="26"/>
-      <c r="W61" s="26"/>
-      <c r="X61" s="29" t="s">
+      <c r="N61" s="35"/>
+      <c r="O61" s="35"/>
+      <c r="P61" s="35"/>
+      <c r="Q61" s="35"/>
+      <c r="R61" s="35"/>
+      <c r="S61" s="35"/>
+      <c r="T61" s="35"/>
+      <c r="U61" s="35"/>
+      <c r="V61" s="35"/>
+      <c r="W61" s="35"/>
+      <c r="X61" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="Y61" s="26"/>
-      <c r="Z61" s="26"/>
-      <c r="AA61" s="26"/>
-      <c r="AB61" s="26"/>
-      <c r="AC61" s="26"/>
-      <c r="AD61" s="26"/>
-      <c r="AE61" s="26"/>
-      <c r="AF61" s="26"/>
-      <c r="AG61" s="26"/>
-      <c r="AH61" s="26"/>
-      <c r="AI61" s="41"/>
-      <c r="AJ61" s="42"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
-      <c r="AQ61" s="42"/>
-      <c r="AR61" s="42"/>
-      <c r="AS61" s="42"/>
-      <c r="AT61" s="42"/>
-      <c r="AU61" s="42"/>
-      <c r="AV61" s="48"/>
+      <c r="Y61" s="35"/>
+      <c r="Z61" s="35"/>
+      <c r="AA61" s="35"/>
+      <c r="AB61" s="35"/>
+      <c r="AC61" s="35"/>
+      <c r="AD61" s="35"/>
+      <c r="AE61" s="35"/>
+      <c r="AF61" s="35"/>
+      <c r="AG61" s="35"/>
+      <c r="AH61" s="35"/>
+      <c r="AI61" s="48"/>
+      <c r="AJ61" s="49"/>
+      <c r="AK61" s="49"/>
+      <c r="AL61" s="49"/>
+      <c r="AM61" s="49"/>
+      <c r="AN61" s="49"/>
+      <c r="AO61" s="49"/>
+      <c r="AP61" s="49"/>
+      <c r="AQ61" s="49"/>
+      <c r="AR61" s="49"/>
+      <c r="AS61" s="49"/>
+      <c r="AT61" s="49"/>
+      <c r="AU61" s="49"/>
+      <c r="AV61" s="50"/>
     </row>
-    <row r="62" s="7" customFormat="1" spans="3:3">
-      <c r="C62" s="27"/>
+    <row r="62" spans="2:48" x14ac:dyDescent="0.15">
+      <c r="C62" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AD2:AK2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="M60:W60"/>
-    <mergeCell ref="X60:AH60"/>
+    <mergeCell ref="AM3:AV4"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="AI60:AV61"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AC3:AJ4"/>
     <mergeCell ref="B61:L61"/>
     <mergeCell ref="M61:W61"/>
     <mergeCell ref="X61:AH61"/>
@@ -12383,35 +11794,44 @@
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="X5:X6"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="M60:W60"/>
+    <mergeCell ref="X60:AH60"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AD2:AK2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AK3:AK5"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AC3:AJ4"/>
-    <mergeCell ref="AM3:AV4"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="AI60:AV61"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:AT1"/>
+      <selection sqref="A1:AT1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" customFormat="1" ht="56.25" spans="1:46">
+    <row r="1" spans="1:46" ht="56.25" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -12552,23 +11972,22 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="18" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="2.6#焦炉加热制度表（日）" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
   <si>
     <t>6# 焦  炉  加  热  制  度  记  录</t>
   </si>
@@ -31,7 +31,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>煤气流量（</t>
@@ -40,7 +39,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m</t>
     </r>
@@ -49,7 +48,7 @@
         <vertAlign val="superscript"/>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>3</t>
     </r>
@@ -57,7 +56,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>/h</t>
     </r>
@@ -65,7 +64,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -76,7 +74,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>煤气压力（</t>
@@ -85,7 +82,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Pa</t>
     </r>
@@ -93,7 +90,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -107,7 +103,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>烟道吸力（</t>
@@ -116,7 +111,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Pa</t>
     </r>
@@ -124,7 +119,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -144,7 +138,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>标准蓄热室吸力（</t>
@@ -153,7 +146,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>Pa</t>
     </r>
@@ -161,7 +154,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>）</t>
@@ -253,7 +245,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累积</t>
@@ -262,7 +253,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">      (</t>
     </r>
@@ -270,7 +261,6 @@
       <rPr>
         <sz val="8"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>万</t>
@@ -279,7 +269,7 @@
       <rPr>
         <sz val="8"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t>m3)</t>
     </r>
@@ -472,7 +462,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -481,7 +471,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>夜班记事：</t>
@@ -490,7 +479,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -500,7 +489,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">  </t>
     </r>
@@ -508,7 +497,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>白</t>
@@ -518,7 +506,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -527,7 +514,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -537,7 +524,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -545,7 +532,6 @@
       <rPr>
         <sz val="12"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>中</t>
@@ -555,7 +541,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>班记事：</t>
@@ -564,7 +549,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">   </t>
     </r>
@@ -574,7 +559,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                          </t>
     </r>
@@ -583,7 +568,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>交班：</t>
@@ -592,7 +576,7 @@
       <rPr>
         <sz val="12"/>
         <rFont val="Times New Roman"/>
-        <family val="1"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve">                              </t>
     </r>
@@ -601,7 +585,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>接班：</t>
@@ -611,8 +594,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -623,122 +612,250 @@
     <font>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
       <sz val="8"/>
       <name val="Times New Roman"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -751,8 +868,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -866,6 +1169,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -942,56 +1254,310 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="20" fontId="6" fillId="0" borderId="5" xfId="50" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1003,113 +1569,139 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 5" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 5" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1120,7 +1712,7 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>20</xdr:col>
@@ -1134,14 +1726,14 @@
       <xdr:row>34</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="2" name="矩形 1"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13738225" y="6560185"/>
+          <a:off x="13738225" y="6626860"/>
           <a:ext cx="4687570" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1326,7 +1918,7 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="Line 2"/>
         <xdr:cNvSpPr>
@@ -1335,7 +1927,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="707390"/>
+          <a:off x="6858000" y="774065"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1372,7 +1964,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="Line 3"/>
         <xdr:cNvSpPr>
@@ -1381,7 +1973,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="1050290"/>
+          <a:off x="6858000" y="1116965"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1418,7 +2010,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="5" name="Line 5"/>
         <xdr:cNvSpPr>
@@ -1427,7 +2019,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="707390"/>
+          <a:off x="6858000" y="774065"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1464,7 +2056,7 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="">
+    <xdr:sp>
       <xdr:nvSpPr>
         <xdr:cNvPr id="6" name="Line 6"/>
         <xdr:cNvSpPr>
@@ -1473,7 +2065,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="707390"/>
+          <a:off x="6858000" y="774065"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1752,451 +2344,451 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AV62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="S2" sqref="S2:V2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B1" s="26" t="s">
+    <row r="1" ht="22.5" spans="2:48">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-      <c r="V1" s="26"/>
-      <c r="W1" s="26"/>
-      <c r="X1" s="26"/>
-      <c r="Y1" s="26"/>
-      <c r="Z1" s="26"/>
-      <c r="AA1" s="26"/>
-      <c r="AB1" s="26"/>
-      <c r="AC1" s="26"/>
-      <c r="AD1" s="26"/>
-      <c r="AE1" s="26"/>
-      <c r="AF1" s="26"/>
-      <c r="AG1" s="26"/>
-      <c r="AH1" s="26"/>
-      <c r="AI1" s="26"/>
-      <c r="AJ1" s="26"/>
-      <c r="AK1" s="26"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+      <c r="R1" s="8"/>
+      <c r="S1" s="8"/>
+      <c r="T1" s="8"/>
+      <c r="U1" s="8"/>
+      <c r="V1" s="8"/>
+      <c r="W1" s="8"/>
+      <c r="X1" s="8"/>
+      <c r="Y1" s="8"/>
+      <c r="Z1" s="8"/>
+      <c r="AA1" s="8"/>
+      <c r="AB1" s="8"/>
+      <c r="AC1" s="8"/>
+      <c r="AD1" s="8"/>
+      <c r="AE1" s="8"/>
+      <c r="AF1" s="8"/>
+      <c r="AG1" s="8"/>
+      <c r="AH1" s="8"/>
+      <c r="AI1" s="8"/>
+      <c r="AJ1" s="8"/>
+      <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
-      <c r="AM1" s="22"/>
-      <c r="AN1" s="22"/>
-      <c r="AO1" s="22"/>
-      <c r="AP1" s="22"/>
-      <c r="AQ1" s="22"/>
-      <c r="AR1" s="22"/>
-      <c r="AS1" s="22"/>
-      <c r="AT1" s="22"/>
-      <c r="AU1" s="22"/>
-      <c r="AV1" s="22"/>
+      <c r="AM1" s="33"/>
+      <c r="AN1" s="33"/>
+      <c r="AO1" s="33"/>
+      <c r="AP1" s="33"/>
+      <c r="AQ1" s="33"/>
+      <c r="AR1" s="33"/>
+      <c r="AS1" s="33"/>
+      <c r="AT1" s="33"/>
+      <c r="AU1" s="33"/>
+      <c r="AV1" s="33"/>
     </row>
-    <row r="2" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="51">
+    <row r="2" ht="19.5" spans="2:48">
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+      <c r="F2" s="11"/>
+      <c r="G2" s="11"/>
+      <c r="H2" s="11"/>
+      <c r="I2" s="11"/>
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+      <c r="R2" s="11"/>
+      <c r="S2" s="30">
         <f>_metadata!B2</f>
         <v>0</v>
       </c>
-      <c r="T2" s="51"/>
-      <c r="U2" s="51"/>
-      <c r="V2" s="51"/>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10"/>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="28" t="s">
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+      <c r="W2" s="11"/>
+      <c r="X2" s="11"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28"/>
-      <c r="AH2" s="28"/>
-      <c r="AI2" s="28"/>
-      <c r="AJ2" s="28"/>
-      <c r="AK2" s="28"/>
-      <c r="AL2" s="21"/>
-      <c r="AM2" s="21"/>
-      <c r="AN2" s="21"/>
-      <c r="AO2" s="21"/>
-      <c r="AP2" s="21"/>
-      <c r="AQ2" s="21"/>
-      <c r="AR2" s="21"/>
-      <c r="AS2" s="21"/>
-      <c r="AT2" s="21"/>
-      <c r="AU2" s="21"/>
-      <c r="AV2" s="21"/>
+      <c r="AE2" s="32"/>
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32"/>
+      <c r="AH2" s="32"/>
+      <c r="AI2" s="32"/>
+      <c r="AJ2" s="32"/>
+      <c r="AK2" s="32"/>
+      <c r="AL2" s="32"/>
+      <c r="AM2" s="32"/>
+      <c r="AN2" s="32"/>
+      <c r="AO2" s="32"/>
+      <c r="AP2" s="32"/>
+      <c r="AQ2" s="32"/>
+      <c r="AR2" s="32"/>
+      <c r="AS2" s="32"/>
+      <c r="AT2" s="32"/>
+      <c r="AU2" s="32"/>
+      <c r="AV2" s="32"/>
     </row>
-    <row r="3" spans="1:48" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B3" s="37" t="s">
+    <row r="3" ht="18.95" customHeight="1" spans="2:48">
+      <c r="B3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="29"/>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="29"/>
-      <c r="L3" s="29"/>
-      <c r="M3" s="29" t="s">
+      <c r="D3" s="13"/>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="13"/>
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="13"/>
+      <c r="M3" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="N3" s="29"/>
-      <c r="O3" s="29"/>
-      <c r="P3" s="29"/>
-      <c r="Q3" s="29"/>
-      <c r="R3" s="29" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="S3" s="29"/>
-      <c r="T3" s="29"/>
-      <c r="U3" s="29" t="s">
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="V3" s="29"/>
-      <c r="W3" s="29" t="s">
+      <c r="V3" s="13"/>
+      <c r="W3" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="29"/>
-      <c r="Y3" s="29" t="s">
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Z3" s="29"/>
-      <c r="AA3" s="29" t="s">
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="AB3" s="29"/>
-      <c r="AC3" s="29" t="s">
+      <c r="AB3" s="13"/>
+      <c r="AC3" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="AD3" s="29"/>
-      <c r="AE3" s="29"/>
-      <c r="AF3" s="29"/>
-      <c r="AG3" s="29"/>
-      <c r="AH3" s="29"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="29"/>
-      <c r="AK3" s="29" t="s">
+      <c r="AD3" s="13"/>
+      <c r="AE3" s="13"/>
+      <c r="AF3" s="13"/>
+      <c r="AG3" s="13"/>
+      <c r="AH3" s="13"/>
+      <c r="AI3" s="13"/>
+      <c r="AJ3" s="13"/>
+      <c r="AK3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="AL3" s="39" t="s">
+      <c r="AL3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="41" t="s">
+      <c r="AM3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="41"/>
-      <c r="AO3" s="41"/>
-      <c r="AP3" s="41"/>
-      <c r="AQ3" s="41"/>
-      <c r="AR3" s="41"/>
-      <c r="AS3" s="41"/>
-      <c r="AT3" s="41"/>
-      <c r="AU3" s="41"/>
-      <c r="AV3" s="42"/>
+      <c r="AN3" s="35"/>
+      <c r="AO3" s="35"/>
+      <c r="AP3" s="35"/>
+      <c r="AQ3" s="35"/>
+      <c r="AR3" s="35"/>
+      <c r="AS3" s="35"/>
+      <c r="AT3" s="35"/>
+      <c r="AU3" s="35"/>
+      <c r="AV3" s="43"/>
     </row>
-    <row r="4" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B4" s="38"/>
-      <c r="C4" s="30" t="s">
+    <row r="4" spans="2:48">
+      <c r="B4" s="14"/>
+      <c r="C4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30" t="s">
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="30"/>
-      <c r="K4" s="30"/>
-      <c r="L4" s="30"/>
-      <c r="M4" s="30" t="s">
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="30"/>
-      <c r="O4" s="30" t="s">
+      <c r="N4" s="15"/>
+      <c r="O4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="30" t="s">
+      <c r="P4" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Q4" s="30" t="s">
+      <c r="Q4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="30" t="s">
+      <c r="R4" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30" t="s">
+      <c r="S4" s="15"/>
+      <c r="T4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="30"/>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="30"/>
-      <c r="AG4" s="30"/>
-      <c r="AH4" s="30"/>
-      <c r="AI4" s="30"/>
-      <c r="AJ4" s="30"/>
-      <c r="AK4" s="30"/>
-      <c r="AL4" s="40"/>
-      <c r="AM4" s="43"/>
-      <c r="AN4" s="43"/>
-      <c r="AO4" s="43"/>
-      <c r="AP4" s="43"/>
-      <c r="AQ4" s="43"/>
-      <c r="AR4" s="43"/>
-      <c r="AS4" s="43"/>
-      <c r="AT4" s="43"/>
-      <c r="AU4" s="43"/>
+      <c r="U4" s="15"/>
+      <c r="V4" s="15"/>
+      <c r="W4" s="15"/>
+      <c r="X4" s="15"/>
+      <c r="Y4" s="15"/>
+      <c r="Z4" s="15"/>
+      <c r="AA4" s="15"/>
+      <c r="AB4" s="15"/>
+      <c r="AC4" s="15"/>
+      <c r="AD4" s="15"/>
+      <c r="AE4" s="15"/>
+      <c r="AF4" s="15"/>
+      <c r="AG4" s="15"/>
+      <c r="AH4" s="15"/>
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+      <c r="AK4" s="15"/>
+      <c r="AL4" s="36"/>
+      <c r="AM4" s="37"/>
+      <c r="AN4" s="37"/>
+      <c r="AO4" s="37"/>
+      <c r="AP4" s="37"/>
+      <c r="AQ4" s="37"/>
+      <c r="AR4" s="37"/>
+      <c r="AS4" s="37"/>
+      <c r="AT4" s="37"/>
+      <c r="AU4" s="37"/>
       <c r="AV4" s="44"/>
     </row>
-    <row r="5" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B5" s="38"/>
-      <c r="C5" s="30" t="s">
+    <row r="5" spans="2:48">
+      <c r="B5" s="14"/>
+      <c r="C5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30" t="s">
+      <c r="D5" s="15"/>
+      <c r="E5" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30" t="s">
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="30"/>
-      <c r="K5" s="30" t="s">
+      <c r="J5" s="15"/>
+      <c r="K5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="L5" s="30"/>
-      <c r="M5" s="30" t="s">
+      <c r="L5" s="15"/>
+      <c r="M5" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="N5" s="30" t="s">
+      <c r="N5" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30" t="s">
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+      <c r="R5" s="15"/>
+      <c r="S5" s="15"/>
+      <c r="T5" s="15"/>
+      <c r="U5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="V5" s="30" t="s">
+      <c r="V5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="30" t="s">
+      <c r="W5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="X5" s="30" t="s">
+      <c r="X5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="Y5" s="11" t="s">
+      <c r="Y5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="Z5" s="11" t="s">
+      <c r="Z5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AA5" s="11" t="s">
+      <c r="AA5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="AB5" s="11" t="s">
+      <c r="AB5" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="AC5" s="30" t="s">
+      <c r="AC5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="30" t="s">
+      <c r="AD5" s="15"/>
+      <c r="AE5" s="15"/>
+      <c r="AF5" s="15"/>
+      <c r="AG5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="AH5" s="30"/>
-      <c r="AI5" s="30"/>
-      <c r="AJ5" s="30"/>
-      <c r="AK5" s="30"/>
-      <c r="AL5" s="40"/>
-      <c r="AM5" s="11" t="s">
+      <c r="AH5" s="15"/>
+      <c r="AI5" s="15"/>
+      <c r="AJ5" s="15"/>
+      <c r="AK5" s="15"/>
+      <c r="AL5" s="36"/>
+      <c r="AM5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="AN5" s="11" t="s">
+      <c r="AN5" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="AO5" s="11" t="s">
+      <c r="AO5" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="AP5" s="11" t="s">
+      <c r="AP5" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="AQ5" s="11" t="s">
+      <c r="AQ5" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="AR5" s="11" t="s">
+      <c r="AR5" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="AS5" s="11" t="s">
+      <c r="AS5" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="AT5" s="11" t="s">
+      <c r="AT5" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="AU5" s="11" t="s">
+      <c r="AU5" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="AV5" s="24" t="s">
+      <c r="AV5" s="45" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:48" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="38"/>
-      <c r="C6" s="11" t="s">
+    <row r="6" ht="22.5" spans="2:48">
+      <c r="B6" s="14"/>
+      <c r="C6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="H6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="I6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="J6" s="11" t="s">
+      <c r="J6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="11" t="s">
+      <c r="K6" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L6" s="11" t="s">
+      <c r="L6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M6" s="30"/>
-      <c r="N6" s="30"/>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="20" t="s">
+      <c r="M6" s="15"/>
+      <c r="N6" s="15"/>
+      <c r="O6" s="15"/>
+      <c r="P6" s="15"/>
+      <c r="Q6" s="15"/>
+      <c r="R6" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="11" t="s">
+      <c r="S6" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="T6" s="11" t="s">
+      <c r="T6" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="30"/>
-      <c r="V6" s="30"/>
-      <c r="W6" s="30"/>
-      <c r="X6" s="30"/>
-      <c r="Y6" s="11" t="s">
+      <c r="U6" s="15"/>
+      <c r="V6" s="15"/>
+      <c r="W6" s="15"/>
+      <c r="X6" s="15"/>
+      <c r="Y6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="Z6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="11" t="s">
+      <c r="AA6" s="15" t="s">
         <v>41</v>
       </c>
       <c r="AB6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="AC6" s="11">
+      <c r="AC6" s="15">
         <v>1</v>
       </c>
-      <c r="AD6" s="11">
+      <c r="AD6" s="15">
         <v>2</v>
       </c>
-      <c r="AE6" s="11">
+      <c r="AE6" s="15">
         <v>3</v>
       </c>
-      <c r="AF6" s="11">
+      <c r="AF6" s="15">
         <v>4</v>
       </c>
-      <c r="AG6" s="11">
+      <c r="AG6" s="15">
         <v>1</v>
       </c>
-      <c r="AH6" s="11">
+      <c r="AH6" s="15">
         <v>2</v>
       </c>
-      <c r="AI6" s="11">
+      <c r="AI6" s="15">
         <v>3</v>
       </c>
-      <c r="AJ6" s="11">
+      <c r="AJ6" s="15">
         <v>4</v>
       </c>
       <c r="AK6" s="2" t="s">
@@ -2205,40 +2797,40 @@
       <c r="AL6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AM6" s="11" t="s">
+      <c r="AM6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AN6" s="11" t="s">
+      <c r="AN6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AO6" s="11" t="s">
+      <c r="AO6" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="AP6" s="11" t="s">
+      <c r="AP6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AQ6" s="11" t="s">
+      <c r="AQ6" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="AR6" s="11" t="s">
+      <c r="AR6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AS6" s="11" t="s">
+      <c r="AS6" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="AT6" s="11" t="s">
+      <c r="AT6" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="AU6" s="11" t="s">
+      <c r="AU6" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="AV6" s="24" t="s">
+      <c r="AV6" s="45" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:48" ht="56.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="12"/>
-      <c r="B7" s="13" t="s">
+    <row r="7" ht="56.25" spans="1:48">
+      <c r="A7" s="16"/>
+      <c r="B7" s="17" t="s">
         <v>49</v>
       </c>
       <c r="C7" s="1" t="s">
@@ -2380,8 +2972,8 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B8" s="14">
+    <row r="8" spans="2:48">
+      <c r="B8" s="18">
         <v>0</v>
       </c>
       <c r="C8" s="5" t="str">
@@ -2569,9 +3161,9 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B9" s="14">
-        <v>2.0833333333333301E-2</v>
+    <row r="9" spans="2:48">
+      <c r="B9" s="18">
+        <v>0.0208333333333333</v>
       </c>
       <c r="C9" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A3="","",_jiaore6_day_hour!A3)</f>
@@ -2753,14 +3345,14 @@
         <f>IF(_jiaore6_day_hour!AS3="","",_jiaore6_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV9" s="25" t="str">
+      <c r="AV9" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT3="","",_jiaore6_day_hour!AT3)</f>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="14">
-        <v>4.1666666666666699E-2</v>
+    <row r="10" ht="14.1" customHeight="1" spans="2:48">
+      <c r="B10" s="18">
+        <v>0.0416666666666667</v>
       </c>
       <c r="C10" s="3" t="str">
         <f>IF(_jiaore6_day_hour!A4="","",_jiaore6_day_hour!A4)</f>
@@ -2922,325 +3514,325 @@
         <f>IF(_jiaore6_day_hour!AN4="","",_jiaore6_day_hour!AN4)</f>
         <v/>
       </c>
-      <c r="AQ10" s="17" t="str">
+      <c r="AQ10" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AO4="","",_jiaore6_day_hour!AO4)</f>
         <v/>
       </c>
-      <c r="AR10" s="17" t="str">
+      <c r="AR10" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AP4="","",_jiaore6_day_hour!AP4)</f>
         <v/>
       </c>
-      <c r="AS10" s="17" t="str">
+      <c r="AS10" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AQ4="","",_jiaore6_day_hour!AQ4)</f>
         <v/>
       </c>
-      <c r="AT10" s="17" t="str">
+      <c r="AT10" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AR4="","",_jiaore6_day_hour!AR4)</f>
         <v/>
       </c>
-      <c r="AU10" s="17" t="str">
+      <c r="AU10" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AS4="","",_jiaore6_day_hour!AS4)</f>
         <v/>
       </c>
-      <c r="AV10" s="25" t="str">
+      <c r="AV10" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT4="","",_jiaore6_day_hour!AT4)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B11" s="14">
-        <v>6.25E-2</v>
-      </c>
-      <c r="C11" s="15" t="str">
+    <row r="11" spans="2:48">
+      <c r="B11" s="18">
+        <v>0.0625</v>
+      </c>
+      <c r="C11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!A5="","",_jiaore6_day_hour!A5)</f>
         <v/>
       </c>
-      <c r="D11" s="15" t="str">
+      <c r="D11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!B5="","",_jiaore6_day_hour!B5)</f>
         <v/>
       </c>
-      <c r="E11" s="15" t="str">
+      <c r="E11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!C5="","",_jiaore6_day_hour!C5)</f>
         <v/>
       </c>
-      <c r="F11" s="15" t="str">
+      <c r="F11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!D5="","",_jiaore6_day_hour!D5)</f>
         <v/>
       </c>
-      <c r="G11" s="15" t="str">
+      <c r="G11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!E5="","",_jiaore6_day_hour!E5)</f>
         <v/>
       </c>
-      <c r="H11" s="15" t="str">
+      <c r="H11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!F5="","",_jiaore6_day_hour!F5)</f>
         <v/>
       </c>
-      <c r="I11" s="15" t="str">
+      <c r="I11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!G5="","",_jiaore6_day_hour!G5)</f>
         <v/>
       </c>
-      <c r="J11" s="15" t="str">
+      <c r="J11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!H5="","",_jiaore6_day_hour!H5)</f>
         <v/>
       </c>
-      <c r="K11" s="15" t="str">
+      <c r="K11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!I5="","",_jiaore6_day_hour!I5)</f>
         <v/>
       </c>
-      <c r="L11" s="15" t="str">
+      <c r="L11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!J5="","",_jiaore6_day_hour!J5)</f>
         <v/>
       </c>
-      <c r="M11" s="15" t="str">
+      <c r="M11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!K5="","",_jiaore6_day_hour!K5)</f>
         <v/>
       </c>
-      <c r="N11" s="15" t="str">
+      <c r="N11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!L5="","",_jiaore6_day_hour!L5)</f>
         <v/>
       </c>
-      <c r="O11" s="15" t="str">
+      <c r="O11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!M5="","",_jiaore6_day_hour!M5)</f>
         <v/>
       </c>
-      <c r="P11" s="15" t="str">
+      <c r="P11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!N5="","",_jiaore6_day_hour!N5)</f>
         <v/>
       </c>
-      <c r="Q11" s="15" t="str">
+      <c r="Q11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!O5="","",_jiaore6_day_hour!O5)</f>
         <v/>
       </c>
-      <c r="R11" s="15" t="str">
+      <c r="R11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!P5="","",_jiaore6_day_hour!P5)</f>
         <v/>
       </c>
-      <c r="S11" s="15" t="str">
+      <c r="S11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!Q5="","",_jiaore6_day_hour!Q5)</f>
         <v/>
       </c>
-      <c r="T11" s="15" t="str">
+      <c r="T11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!R5="","",_jiaore6_day_hour!R5)</f>
         <v/>
       </c>
-      <c r="U11" s="15" t="str">
+      <c r="U11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!S5="","",_jiaore6_day_hour!S5)</f>
         <v/>
       </c>
-      <c r="V11" s="15" t="str">
+      <c r="V11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!T5="","",_jiaore6_day_hour!T5)</f>
         <v/>
       </c>
-      <c r="W11" s="15" t="str">
+      <c r="W11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!U5="","",_jiaore6_day_hour!U5)</f>
         <v/>
       </c>
-      <c r="X11" s="15" t="str">
+      <c r="X11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!V5="","",_jiaore6_day_hour!V5)</f>
         <v/>
       </c>
-      <c r="Y11" s="15" t="str">
+      <c r="Y11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!W5="","",_jiaore6_day_hour!W5)</f>
         <v/>
       </c>
-      <c r="Z11" s="15" t="str">
+      <c r="Z11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!X5="","",_jiaore6_day_hour!X5)</f>
         <v/>
       </c>
-      <c r="AA11" s="15" t="str">
+      <c r="AA11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!Y5="","",_jiaore6_day_hour!Y5)</f>
         <v/>
       </c>
-      <c r="AB11" s="15" t="str">
+      <c r="AB11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!Z5="","",_jiaore6_day_hour!Z5)</f>
         <v/>
       </c>
-      <c r="AC11" s="15" t="str">
+      <c r="AC11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AA5="","",_jiaore6_day_hour!AA5)</f>
         <v/>
       </c>
-      <c r="AD11" s="15" t="str">
+      <c r="AD11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AB5="","",_jiaore6_day_hour!AB5)</f>
         <v/>
       </c>
-      <c r="AE11" s="15" t="str">
+      <c r="AE11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AC5="","",_jiaore6_day_hour!AC5)</f>
         <v/>
       </c>
-      <c r="AF11" s="15" t="str">
+      <c r="AF11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AD5="","",_jiaore6_day_hour!AD5)</f>
         <v/>
       </c>
-      <c r="AG11" s="15" t="str">
+      <c r="AG11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AE5="","",_jiaore6_day_hour!AE5)</f>
         <v/>
       </c>
-      <c r="AH11" s="15" t="str">
+      <c r="AH11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AF5="","",_jiaore6_day_hour!AF5)</f>
         <v/>
       </c>
-      <c r="AI11" s="15" t="str">
+      <c r="AI11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AG5="","",_jiaore6_day_hour!AG5)</f>
         <v/>
       </c>
-      <c r="AJ11" s="15" t="str">
+      <c r="AJ11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AH5="","",_jiaore6_day_hour!AH5)</f>
         <v/>
       </c>
-      <c r="AK11" s="15" t="str">
+      <c r="AK11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AI5="","",_jiaore6_day_hour!AI5)</f>
         <v/>
       </c>
-      <c r="AL11" s="15" t="str">
+      <c r="AL11" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AJ5="","",_jiaore6_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="23" t="str">
+      <c r="AM11" s="38" t="str">
         <f>IF(_jiaore6_day_hour!AK5="","",_jiaore6_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="23" t="str">
+      <c r="AN11" s="38" t="str">
         <f>IF(_jiaore6_day_hour!AL5="","",_jiaore6_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="23" t="str">
+      <c r="AO11" s="38" t="str">
         <f>IF(_jiaore6_day_hour!AM5="","",_jiaore6_day_hour!AM5)</f>
         <v/>
       </c>
-      <c r="AP11" s="17" t="str">
+      <c r="AP11" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AN5="","",_jiaore6_day_hour!AN5)</f>
         <v/>
       </c>
-      <c r="AQ11" s="17" t="str">
+      <c r="AQ11" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AO5="","",_jiaore6_day_hour!AO5)</f>
         <v/>
       </c>
-      <c r="AR11" s="17" t="str">
+      <c r="AR11" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AP5="","",_jiaore6_day_hour!AP5)</f>
         <v/>
       </c>
-      <c r="AS11" s="17" t="str">
+      <c r="AS11" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AQ5="","",_jiaore6_day_hour!AQ5)</f>
         <v/>
       </c>
-      <c r="AT11" s="17" t="str">
+      <c r="AT11" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AR5="","",_jiaore6_day_hour!AR5)</f>
         <v/>
       </c>
-      <c r="AU11" s="17" t="str">
+      <c r="AU11" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AS5="","",_jiaore6_day_hour!AS5)</f>
         <v/>
       </c>
-      <c r="AV11" s="25" t="str">
+      <c r="AV11" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT5="","",_jiaore6_day_hour!AT5)</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:48" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="14">
-        <v>8.3333333333333301E-2</v>
-      </c>
-      <c r="C12" s="16" t="str">
+    <row r="12" ht="14.1" customHeight="1" spans="2:48">
+      <c r="B12" s="18">
+        <v>0.0833333333333333</v>
+      </c>
+      <c r="C12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!A6="","",_jiaore6_day_hour!A6)</f>
         <v/>
       </c>
-      <c r="D12" s="16" t="str">
+      <c r="D12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!B6="","",_jiaore6_day_hour!B6)</f>
         <v/>
       </c>
-      <c r="E12" s="16" t="str">
+      <c r="E12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!C6="","",_jiaore6_day_hour!C6)</f>
         <v/>
       </c>
-      <c r="F12" s="16" t="str">
+      <c r="F12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!D6="","",_jiaore6_day_hour!D6)</f>
         <v/>
       </c>
-      <c r="G12" s="16" t="str">
+      <c r="G12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!E6="","",_jiaore6_day_hour!E6)</f>
         <v/>
       </c>
-      <c r="H12" s="16" t="str">
+      <c r="H12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!F6="","",_jiaore6_day_hour!F6)</f>
         <v/>
       </c>
-      <c r="I12" s="16" t="str">
+      <c r="I12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!G6="","",_jiaore6_day_hour!G6)</f>
         <v/>
       </c>
-      <c r="J12" s="16" t="str">
+      <c r="J12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!H6="","",_jiaore6_day_hour!H6)</f>
         <v/>
       </c>
-      <c r="K12" s="16" t="str">
+      <c r="K12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!I6="","",_jiaore6_day_hour!I6)</f>
         <v/>
       </c>
-      <c r="L12" s="16" t="str">
+      <c r="L12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!J6="","",_jiaore6_day_hour!J6)</f>
         <v/>
       </c>
-      <c r="M12" s="16" t="str">
+      <c r="M12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!K6="","",_jiaore6_day_hour!K6)</f>
         <v/>
       </c>
-      <c r="N12" s="16" t="str">
+      <c r="N12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!L6="","",_jiaore6_day_hour!L6)</f>
         <v/>
       </c>
-      <c r="O12" s="16" t="str">
+      <c r="O12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!M6="","",_jiaore6_day_hour!M6)</f>
         <v/>
       </c>
-      <c r="P12" s="16" t="str">
+      <c r="P12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!N6="","",_jiaore6_day_hour!N6)</f>
         <v/>
       </c>
-      <c r="Q12" s="16" t="str">
+      <c r="Q12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!O6="","",_jiaore6_day_hour!O6)</f>
         <v/>
       </c>
-      <c r="R12" s="16" t="str">
+      <c r="R12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!P6="","",_jiaore6_day_hour!P6)</f>
         <v/>
       </c>
-      <c r="S12" s="16" t="str">
+      <c r="S12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!Q6="","",_jiaore6_day_hour!Q6)</f>
         <v/>
       </c>
-      <c r="T12" s="16" t="str">
+      <c r="T12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!R6="","",_jiaore6_day_hour!R6)</f>
         <v/>
       </c>
-      <c r="U12" s="16" t="str">
+      <c r="U12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!S6="","",_jiaore6_day_hour!S6)</f>
         <v/>
       </c>
-      <c r="V12" s="16" t="str">
+      <c r="V12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!T6="","",_jiaore6_day_hour!T6)</f>
         <v/>
       </c>
-      <c r="W12" s="16" t="str">
+      <c r="W12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!U6="","",_jiaore6_day_hour!U6)</f>
         <v/>
       </c>
-      <c r="X12" s="16" t="str">
+      <c r="X12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!V6="","",_jiaore6_day_hour!V6)</f>
         <v/>
       </c>
-      <c r="Y12" s="16" t="str">
+      <c r="Y12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!W6="","",_jiaore6_day_hour!W6)</f>
         <v/>
       </c>
-      <c r="Z12" s="16" t="str">
+      <c r="Z12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!X6="","",_jiaore6_day_hour!X6)</f>
         <v/>
       </c>
-      <c r="AA12" s="16" t="str">
+      <c r="AA12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!Y6="","",_jiaore6_day_hour!Y6)</f>
         <v/>
       </c>
-      <c r="AB12" s="16" t="str">
+      <c r="AB12" s="20" t="str">
         <f>IF(_jiaore6_day_hour!Z6="","",_jiaore6_day_hour!Z6)</f>
         <v/>
       </c>
@@ -3276,11 +3868,11 @@
         <f>IF(_jiaore6_day_hour!AH6="","",_jiaore6_day_hour!AH6)</f>
         <v/>
       </c>
-      <c r="AK12" s="15" t="str">
+      <c r="AK12" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AI6="","",_jiaore6_day_hour!AI6)</f>
         <v/>
       </c>
-      <c r="AL12" s="15" t="str">
+      <c r="AL12" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AJ6="","",_jiaore6_day_hour!AJ6)</f>
         <v/>
       </c>
@@ -3296,180 +3888,180 @@
         <f>IF(_jiaore6_day_hour!AM6="","",_jiaore6_day_hour!AM6)</f>
         <v/>
       </c>
-      <c r="AP12" s="17" t="str">
+      <c r="AP12" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AN6="","",_jiaore6_day_hour!AN6)</f>
         <v/>
       </c>
-      <c r="AQ12" s="17" t="str">
+      <c r="AQ12" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AO6="","",_jiaore6_day_hour!AO6)</f>
         <v/>
       </c>
-      <c r="AR12" s="17" t="str">
+      <c r="AR12" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AP6="","",_jiaore6_day_hour!AP6)</f>
         <v/>
       </c>
-      <c r="AS12" s="17" t="str">
+      <c r="AS12" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AQ6="","",_jiaore6_day_hour!AQ6)</f>
         <v/>
       </c>
-      <c r="AT12" s="17" t="str">
+      <c r="AT12" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AR6="","",_jiaore6_day_hour!AR6)</f>
         <v/>
       </c>
-      <c r="AU12" s="17" t="str">
+      <c r="AU12" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AS6="","",_jiaore6_day_hour!AS6)</f>
         <v/>
       </c>
-      <c r="AV12" s="25" t="str">
+      <c r="AV12" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT6="","",_jiaore6_day_hour!AT6)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B13" s="14">
+    <row r="13" spans="2:48">
+      <c r="B13" s="18">
         <v>0.104166666666667</v>
       </c>
-      <c r="C13" s="15" t="str">
+      <c r="C13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!A7="","",_jiaore6_day_hour!A7)</f>
         <v/>
       </c>
-      <c r="D13" s="15" t="str">
+      <c r="D13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!B7="","",_jiaore6_day_hour!B7)</f>
         <v/>
       </c>
-      <c r="E13" s="15" t="str">
+      <c r="E13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!C7="","",_jiaore6_day_hour!C7)</f>
         <v/>
       </c>
-      <c r="F13" s="15" t="str">
+      <c r="F13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!D7="","",_jiaore6_day_hour!D7)</f>
         <v/>
       </c>
-      <c r="G13" s="15" t="str">
+      <c r="G13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!E7="","",_jiaore6_day_hour!E7)</f>
         <v/>
       </c>
-      <c r="H13" s="15" t="str">
+      <c r="H13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!F7="","",_jiaore6_day_hour!F7)</f>
         <v/>
       </c>
-      <c r="I13" s="15" t="str">
+      <c r="I13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!G7="","",_jiaore6_day_hour!G7)</f>
         <v/>
       </c>
-      <c r="J13" s="15" t="str">
+      <c r="J13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!H7="","",_jiaore6_day_hour!H7)</f>
         <v/>
       </c>
-      <c r="K13" s="15" t="str">
+      <c r="K13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!I7="","",_jiaore6_day_hour!I7)</f>
         <v/>
       </c>
-      <c r="L13" s="15" t="str">
+      <c r="L13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!J7="","",_jiaore6_day_hour!J7)</f>
         <v/>
       </c>
-      <c r="M13" s="15" t="str">
+      <c r="M13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!K7="","",_jiaore6_day_hour!K7)</f>
         <v/>
       </c>
-      <c r="N13" s="15" t="str">
+      <c r="N13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!L7="","",_jiaore6_day_hour!L7)</f>
         <v/>
       </c>
-      <c r="O13" s="15" t="str">
+      <c r="O13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!M7="","",_jiaore6_day_hour!M7)</f>
         <v/>
       </c>
-      <c r="P13" s="15" t="str">
+      <c r="P13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!N7="","",_jiaore6_day_hour!N7)</f>
         <v/>
       </c>
-      <c r="Q13" s="15" t="str">
+      <c r="Q13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!O7="","",_jiaore6_day_hour!O7)</f>
         <v/>
       </c>
-      <c r="R13" s="15" t="str">
+      <c r="R13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!P7="","",_jiaore6_day_hour!P7)</f>
         <v/>
       </c>
-      <c r="S13" s="15" t="str">
+      <c r="S13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!Q7="","",_jiaore6_day_hour!Q7)</f>
         <v/>
       </c>
-      <c r="T13" s="15" t="str">
+      <c r="T13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!R7="","",_jiaore6_day_hour!R7)</f>
         <v/>
       </c>
-      <c r="U13" s="15" t="str">
+      <c r="U13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!S7="","",_jiaore6_day_hour!S7)</f>
         <v/>
       </c>
-      <c r="V13" s="15" t="str">
+      <c r="V13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!T7="","",_jiaore6_day_hour!T7)</f>
         <v/>
       </c>
-      <c r="W13" s="15" t="str">
+      <c r="W13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!U7="","",_jiaore6_day_hour!U7)</f>
         <v/>
       </c>
-      <c r="X13" s="15" t="str">
+      <c r="X13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!V7="","",_jiaore6_day_hour!V7)</f>
         <v/>
       </c>
-      <c r="Y13" s="15" t="str">
+      <c r="Y13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!W7="","",_jiaore6_day_hour!W7)</f>
         <v/>
       </c>
-      <c r="Z13" s="15" t="str">
+      <c r="Z13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!X7="","",_jiaore6_day_hour!X7)</f>
         <v/>
       </c>
-      <c r="AA13" s="15" t="str">
+      <c r="AA13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!Y7="","",_jiaore6_day_hour!Y7)</f>
         <v/>
       </c>
-      <c r="AB13" s="15" t="str">
+      <c r="AB13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!Z7="","",_jiaore6_day_hour!Z7)</f>
         <v/>
       </c>
-      <c r="AC13" s="15" t="str">
+      <c r="AC13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AA7="","",_jiaore6_day_hour!AA7)</f>
         <v/>
       </c>
-      <c r="AD13" s="15" t="str">
+      <c r="AD13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AB7="","",_jiaore6_day_hour!AB7)</f>
         <v/>
       </c>
-      <c r="AE13" s="15" t="str">
+      <c r="AE13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AC7="","",_jiaore6_day_hour!AC7)</f>
         <v/>
       </c>
-      <c r="AF13" s="15" t="str">
+      <c r="AF13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AD7="","",_jiaore6_day_hour!AD7)</f>
         <v/>
       </c>
-      <c r="AG13" s="15" t="str">
+      <c r="AG13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AE7="","",_jiaore6_day_hour!AE7)</f>
         <v/>
       </c>
-      <c r="AH13" s="15" t="str">
+      <c r="AH13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AF7="","",_jiaore6_day_hour!AF7)</f>
         <v/>
       </c>
-      <c r="AI13" s="15" t="str">
+      <c r="AI13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AG7="","",_jiaore6_day_hour!AG7)</f>
         <v/>
       </c>
-      <c r="AJ13" s="15" t="str">
+      <c r="AJ13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AH7="","",_jiaore6_day_hour!AH7)</f>
         <v/>
       </c>
-      <c r="AK13" s="15" t="str">
+      <c r="AK13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AI7="","",_jiaore6_day_hour!AI7)</f>
         <v/>
       </c>
-      <c r="AL13" s="15" t="str">
+      <c r="AL13" s="19" t="str">
         <f>IF(_jiaore6_day_hour!AJ7="","",_jiaore6_day_hour!AJ7)</f>
         <v/>
       </c>
@@ -3485,180 +4077,180 @@
         <f>IF(_jiaore6_day_hour!AM7="","",_jiaore6_day_hour!AM7)</f>
         <v/>
       </c>
-      <c r="AP13" s="17" t="str">
+      <c r="AP13" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AN7="","",_jiaore6_day_hour!AN7)</f>
         <v/>
       </c>
-      <c r="AQ13" s="17" t="str">
+      <c r="AQ13" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AO7="","",_jiaore6_day_hour!AO7)</f>
         <v/>
       </c>
-      <c r="AR13" s="17" t="str">
+      <c r="AR13" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AP7="","",_jiaore6_day_hour!AP7)</f>
         <v/>
       </c>
-      <c r="AS13" s="17" t="str">
+      <c r="AS13" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AQ7="","",_jiaore6_day_hour!AQ7)</f>
         <v/>
       </c>
-      <c r="AT13" s="17" t="str">
+      <c r="AT13" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AR7="","",_jiaore6_day_hour!AR7)</f>
         <v/>
       </c>
-      <c r="AU13" s="17" t="str">
+      <c r="AU13" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AS7="","",_jiaore6_day_hour!AS7)</f>
         <v/>
       </c>
-      <c r="AV13" s="25" t="str">
+      <c r="AV13" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT7="","",_jiaore6_day_hour!AT7)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B14" s="14">
+    <row r="14" spans="2:48">
+      <c r="B14" s="18">
         <v>0.125</v>
       </c>
-      <c r="C14" s="17" t="str">
+      <c r="C14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!A8="","",_jiaore6_day_hour!A8)</f>
         <v/>
       </c>
-      <c r="D14" s="17" t="str">
+      <c r="D14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!B8="","",_jiaore6_day_hour!B8)</f>
         <v/>
       </c>
-      <c r="E14" s="17" t="str">
+      <c r="E14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!C8="","",_jiaore6_day_hour!C8)</f>
         <v/>
       </c>
-      <c r="F14" s="17" t="str">
+      <c r="F14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!D8="","",_jiaore6_day_hour!D8)</f>
         <v/>
       </c>
-      <c r="G14" s="17" t="str">
+      <c r="G14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!E8="","",_jiaore6_day_hour!E8)</f>
         <v/>
       </c>
-      <c r="H14" s="17" t="str">
+      <c r="H14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!F8="","",_jiaore6_day_hour!F8)</f>
         <v/>
       </c>
-      <c r="I14" s="17" t="str">
+      <c r="I14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!G8="","",_jiaore6_day_hour!G8)</f>
         <v/>
       </c>
-      <c r="J14" s="17" t="str">
+      <c r="J14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!H8="","",_jiaore6_day_hour!H8)</f>
         <v/>
       </c>
-      <c r="K14" s="17" t="str">
+      <c r="K14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!I8="","",_jiaore6_day_hour!I8)</f>
         <v/>
       </c>
-      <c r="L14" s="17" t="str">
+      <c r="L14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!J8="","",_jiaore6_day_hour!J8)</f>
         <v/>
       </c>
-      <c r="M14" s="17" t="str">
+      <c r="M14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!K8="","",_jiaore6_day_hour!K8)</f>
         <v/>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!L8="","",_jiaore6_day_hour!L8)</f>
         <v/>
       </c>
-      <c r="O14" s="17" t="str">
+      <c r="O14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!M8="","",_jiaore6_day_hour!M8)</f>
         <v/>
       </c>
-      <c r="P14" s="17" t="str">
+      <c r="P14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!N8="","",_jiaore6_day_hour!N8)</f>
         <v/>
       </c>
-      <c r="Q14" s="17" t="str">
+      <c r="Q14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!O8="","",_jiaore6_day_hour!O8)</f>
         <v/>
       </c>
-      <c r="R14" s="17" t="str">
+      <c r="R14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!P8="","",_jiaore6_day_hour!P8)</f>
         <v/>
       </c>
-      <c r="S14" s="17" t="str">
+      <c r="S14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!Q8="","",_jiaore6_day_hour!Q8)</f>
         <v/>
       </c>
-      <c r="T14" s="17" t="str">
+      <c r="T14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!R8="","",_jiaore6_day_hour!R8)</f>
         <v/>
       </c>
-      <c r="U14" s="17" t="str">
+      <c r="U14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!S8="","",_jiaore6_day_hour!S8)</f>
         <v/>
       </c>
-      <c r="V14" s="17" t="str">
+      <c r="V14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!T8="","",_jiaore6_day_hour!T8)</f>
         <v/>
       </c>
-      <c r="W14" s="17" t="str">
+      <c r="W14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!U8="","",_jiaore6_day_hour!U8)</f>
         <v/>
       </c>
-      <c r="X14" s="17" t="str">
+      <c r="X14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!V8="","",_jiaore6_day_hour!V8)</f>
         <v/>
       </c>
-      <c r="Y14" s="17" t="str">
+      <c r="Y14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!W8="","",_jiaore6_day_hour!W8)</f>
         <v/>
       </c>
-      <c r="Z14" s="17" t="str">
+      <c r="Z14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!X8="","",_jiaore6_day_hour!X8)</f>
         <v/>
       </c>
-      <c r="AA14" s="17" t="str">
+      <c r="AA14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!Y8="","",_jiaore6_day_hour!Y8)</f>
         <v/>
       </c>
-      <c r="AB14" s="17" t="str">
+      <c r="AB14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!Z8="","",_jiaore6_day_hour!Z8)</f>
         <v/>
       </c>
-      <c r="AC14" s="17" t="str">
+      <c r="AC14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AA8="","",_jiaore6_day_hour!AA8)</f>
         <v/>
       </c>
-      <c r="AD14" s="17" t="str">
+      <c r="AD14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AB8="","",_jiaore6_day_hour!AB8)</f>
         <v/>
       </c>
-      <c r="AE14" s="17" t="str">
+      <c r="AE14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AC8="","",_jiaore6_day_hour!AC8)</f>
         <v/>
       </c>
-      <c r="AF14" s="17" t="str">
+      <c r="AF14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AD8="","",_jiaore6_day_hour!AD8)</f>
         <v/>
       </c>
-      <c r="AG14" s="17" t="str">
+      <c r="AG14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AE8="","",_jiaore6_day_hour!AE8)</f>
         <v/>
       </c>
-      <c r="AH14" s="17" t="str">
+      <c r="AH14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AF8="","",_jiaore6_day_hour!AF8)</f>
         <v/>
       </c>
-      <c r="AI14" s="17" t="str">
+      <c r="AI14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AG8="","",_jiaore6_day_hour!AG8)</f>
         <v/>
       </c>
-      <c r="AJ14" s="17" t="str">
+      <c r="AJ14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AH8="","",_jiaore6_day_hour!AH8)</f>
         <v/>
       </c>
-      <c r="AK14" s="17" t="str">
+      <c r="AK14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AI8="","",_jiaore6_day_hour!AI8)</f>
         <v/>
       </c>
-      <c r="AL14" s="17" t="str">
+      <c r="AL14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AJ8="","",_jiaore6_day_hour!AJ8)</f>
         <v/>
       </c>
@@ -3674,38 +4266,38 @@
         <f>IF(_jiaore6_day_hour!AM8="","",_jiaore6_day_hour!AM8)</f>
         <v/>
       </c>
-      <c r="AP14" s="17" t="str">
+      <c r="AP14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AN8="","",_jiaore6_day_hour!AN8)</f>
         <v/>
       </c>
-      <c r="AQ14" s="17" t="str">
+      <c r="AQ14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AO8="","",_jiaore6_day_hour!AO8)</f>
         <v/>
       </c>
-      <c r="AR14" s="17" t="str">
+      <c r="AR14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AP8="","",_jiaore6_day_hour!AP8)</f>
         <v/>
       </c>
-      <c r="AS14" s="17" t="str">
+      <c r="AS14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AQ8="","",_jiaore6_day_hour!AQ8)</f>
         <v/>
       </c>
-      <c r="AT14" s="17" t="str">
+      <c r="AT14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AR8="","",_jiaore6_day_hour!AR8)</f>
         <v/>
       </c>
-      <c r="AU14" s="17" t="str">
+      <c r="AU14" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AS8="","",_jiaore6_day_hour!AS8)</f>
         <v/>
       </c>
-      <c r="AV14" s="25" t="str">
+      <c r="AV14" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT8="","",_jiaore6_day_hour!AT8)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B15" s="14">
-        <v>0.14583333333333301</v>
+    <row r="15" spans="2:48">
+      <c r="B15" s="18">
+        <v>0.145833333333333</v>
       </c>
       <c r="C15" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A9="","",_jiaore6_day_hour!A9)</f>
@@ -3863,38 +4455,38 @@
         <f>IF(_jiaore6_day_hour!AM9="","",_jiaore6_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AP15" s="17" t="str">
+      <c r="AP15" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AN9="","",_jiaore6_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AQ15" s="17" t="str">
+      <c r="AQ15" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AO9="","",_jiaore6_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AR15" s="17" t="str">
+      <c r="AR15" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AP9="","",_jiaore6_day_hour!AP9)</f>
         <v/>
       </c>
-      <c r="AS15" s="17" t="str">
+      <c r="AS15" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AQ9="","",_jiaore6_day_hour!AQ9)</f>
         <v/>
       </c>
-      <c r="AT15" s="17" t="str">
+      <c r="AT15" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AR9="","",_jiaore6_day_hour!AR9)</f>
         <v/>
       </c>
-      <c r="AU15" s="17" t="str">
+      <c r="AU15" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AS9="","",_jiaore6_day_hour!AS9)</f>
         <v/>
       </c>
-      <c r="AV15" s="25" t="str">
+      <c r="AV15" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT9="","",_jiaore6_day_hour!AT9)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:48" x14ac:dyDescent="0.15">
-      <c r="B16" s="14">
-        <v>0.16666666666666699</v>
+    <row r="16" spans="2:48">
+      <c r="B16" s="18">
+        <v>0.166666666666667</v>
       </c>
       <c r="C16" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A10="","",_jiaore6_day_hour!A10)</f>
@@ -4056,33 +4648,33 @@
         <f>IF(_jiaore6_day_hour!AN10="","",_jiaore6_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AQ16" s="17" t="str">
+      <c r="AQ16" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AO10="","",_jiaore6_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AR16" s="17" t="str">
+      <c r="AR16" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AP10="","",_jiaore6_day_hour!AP10)</f>
         <v/>
       </c>
-      <c r="AS16" s="17" t="str">
+      <c r="AS16" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AQ10="","",_jiaore6_day_hour!AQ10)</f>
         <v/>
       </c>
-      <c r="AT16" s="17" t="str">
+      <c r="AT16" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AR10="","",_jiaore6_day_hour!AR10)</f>
         <v/>
       </c>
-      <c r="AU16" s="17" t="str">
+      <c r="AU16" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AS10="","",_jiaore6_day_hour!AS10)</f>
         <v/>
       </c>
-      <c r="AV16" s="25" t="str">
+      <c r="AV16" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT10="","",_jiaore6_day_hour!AT10)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B17" s="14">
+    <row r="17" spans="2:48">
+      <c r="B17" s="18">
         <v>0.1875</v>
       </c>
       <c r="C17" s="5" t="str">
@@ -4261,18 +4853,18 @@
         <f>IF(_jiaore6_day_hour!AR11="","",_jiaore6_day_hour!AR11)</f>
         <v/>
       </c>
-      <c r="AU17" s="17" t="str">
+      <c r="AU17" s="21" t="str">
         <f>IF(_jiaore6_day_hour!AS11="","",_jiaore6_day_hour!AS11)</f>
         <v/>
       </c>
-      <c r="AV17" s="25" t="str">
+      <c r="AV17" s="46" t="str">
         <f>IF(_jiaore6_day_hour!AT11="","",_jiaore6_day_hour!AT11)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B18" s="14">
-        <v>0.20833333333333301</v>
+    <row r="18" spans="2:48">
+      <c r="B18" s="18">
+        <v>0.208333333333333</v>
       </c>
       <c r="C18" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A12="","",_jiaore6_day_hour!A12)</f>
@@ -4459,9 +5051,9 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B19" s="14">
-        <v>0.22916666666666699</v>
+    <row r="19" spans="2:48">
+      <c r="B19" s="18">
+        <v>0.229166666666667</v>
       </c>
       <c r="C19" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A13="","",_jiaore6_day_hour!A13)</f>
@@ -4648,8 +5240,8 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B20" s="14">
+    <row r="20" spans="2:48">
+      <c r="B20" s="18">
         <v>0.25</v>
       </c>
       <c r="C20" s="5" t="str">
@@ -4837,9 +5429,9 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B21" s="14">
-        <v>0.27083333333333298</v>
+    <row r="21" spans="2:48">
+      <c r="B21" s="18">
+        <v>0.270833333333333</v>
       </c>
       <c r="C21" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A15="","",_jiaore6_day_hour!A15)</f>
@@ -5026,9 +5618,9 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B22" s="14">
-        <v>0.29166666666666702</v>
+    <row r="22" spans="2:48">
+      <c r="B22" s="18">
+        <v>0.291666666666667</v>
       </c>
       <c r="C22" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A16="","",_jiaore6_day_hour!A16)</f>
@@ -5215,8 +5807,8 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B23" s="14">
+    <row r="23" spans="2:48">
+      <c r="B23" s="18">
         <v>0.3125</v>
       </c>
       <c r="C23" s="5" t="str">
@@ -5404,9 +5996,9 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B24" s="14">
-        <v>0.33333333333333298</v>
+    <row r="24" spans="2:48">
+      <c r="B24" s="18">
+        <v>0.333333333333333</v>
       </c>
       <c r="C24" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A18="","",_jiaore6_day_hour!A18)</f>
@@ -5593,9 +6185,9 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B25" s="14">
-        <v>0.35416666666666702</v>
+    <row r="25" spans="2:48">
+      <c r="B25" s="18">
+        <v>0.354166666666667</v>
       </c>
       <c r="C25" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A19="","",_jiaore6_day_hour!A19)</f>
@@ -5782,8 +6374,8 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B26" s="14">
+    <row r="26" spans="2:48">
+      <c r="B26" s="18">
         <v>0.375</v>
       </c>
       <c r="C26" s="5" t="str">
@@ -5971,9 +6563,9 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B27" s="14">
-        <v>0.39583333333333298</v>
+    <row r="27" spans="2:48">
+      <c r="B27" s="18">
+        <v>0.395833333333333</v>
       </c>
       <c r="C27" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A21="","",_jiaore6_day_hour!A21)</f>
@@ -6160,9 +6752,9 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B28" s="14">
-        <v>0.41666666666666702</v>
+    <row r="28" spans="2:48">
+      <c r="B28" s="18">
+        <v>0.416666666666667</v>
       </c>
       <c r="C28" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A22="","",_jiaore6_day_hour!A22)</f>
@@ -6349,8 +6941,8 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B29" s="14">
+    <row r="29" spans="2:48">
+      <c r="B29" s="18">
         <v>0.4375</v>
       </c>
       <c r="C29" s="5" t="str">
@@ -6538,9 +7130,9 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B30" s="14">
-        <v>0.45833333333333298</v>
+    <row r="30" spans="2:48">
+      <c r="B30" s="18">
+        <v>0.458333333333333</v>
       </c>
       <c r="C30" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A24="","",_jiaore6_day_hour!A24)</f>
@@ -6727,9 +7319,9 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B31" s="14">
-        <v>0.47916666666666702</v>
+    <row r="31" spans="2:48">
+      <c r="B31" s="18">
+        <v>0.479166666666667</v>
       </c>
       <c r="C31" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A25="","",_jiaore6_day_hour!A25)</f>
@@ -6916,8 +7508,8 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B32" s="14">
+    <row r="32" spans="2:48">
+      <c r="B32" s="18">
         <v>0.5</v>
       </c>
       <c r="C32" s="5" t="str">
@@ -7105,9 +7697,9 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B33" s="14">
-        <v>0.52083333333333304</v>
+    <row r="33" spans="2:48">
+      <c r="B33" s="18">
+        <v>0.520833333333333</v>
       </c>
       <c r="C33" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A27="","",_jiaore6_day_hour!A27)</f>
@@ -7294,9 +7886,9 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B34" s="14">
-        <v>0.54166666666666696</v>
+    <row r="34" spans="2:48">
+      <c r="B34" s="18">
+        <v>0.541666666666667</v>
       </c>
       <c r="C34" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A28="","",_jiaore6_day_hour!A28)</f>
@@ -7483,8 +8075,8 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B35" s="14">
+    <row r="35" spans="2:48">
+      <c r="B35" s="18">
         <v>0.5625</v>
       </c>
       <c r="C35" s="5" t="str">
@@ -7672,9 +8264,9 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B36" s="14">
-        <v>0.58333333333333304</v>
+    <row r="36" spans="2:48">
+      <c r="B36" s="18">
+        <v>0.583333333333333</v>
       </c>
       <c r="C36" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A30="","",_jiaore6_day_hour!A30)</f>
@@ -7861,9 +8453,9 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B37" s="14">
-        <v>0.60416666666666696</v>
+    <row r="37" spans="2:48">
+      <c r="B37" s="18">
+        <v>0.604166666666667</v>
       </c>
       <c r="C37" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A31="","",_jiaore6_day_hour!A31)</f>
@@ -8050,8 +8642,8 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B38" s="14">
+    <row r="38" spans="2:48">
+      <c r="B38" s="18">
         <v>0.625</v>
       </c>
       <c r="C38" s="5" t="str">
@@ -8239,9 +8831,9 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B39" s="14">
-        <v>0.64583333333333304</v>
+    <row r="39" spans="2:48">
+      <c r="B39" s="18">
+        <v>0.645833333333333</v>
       </c>
       <c r="C39" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A33="","",_jiaore6_day_hour!A33)</f>
@@ -8428,9 +9020,9 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B40" s="14">
-        <v>0.66666666666666696</v>
+    <row r="40" spans="2:48">
+      <c r="B40" s="18">
+        <v>0.666666666666667</v>
       </c>
       <c r="C40" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A34="","",_jiaore6_day_hour!A34)</f>
@@ -8617,8 +9209,8 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B41" s="14">
+    <row r="41" spans="2:48">
+      <c r="B41" s="18">
         <v>0.6875</v>
       </c>
       <c r="C41" s="5" t="str">
@@ -8806,9 +9398,9 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B42" s="14">
-        <v>0.70833333333333304</v>
+    <row r="42" spans="2:48">
+      <c r="B42" s="18">
+        <v>0.708333333333333</v>
       </c>
       <c r="C42" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A36="","",_jiaore6_day_hour!A36)</f>
@@ -8995,9 +9587,9 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B43" s="14">
-        <v>0.72916666666666696</v>
+    <row r="43" spans="2:48">
+      <c r="B43" s="18">
+        <v>0.729166666666667</v>
       </c>
       <c r="C43" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A37="","",_jiaore6_day_hour!A37)</f>
@@ -9184,8 +9776,8 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B44" s="14">
+    <row r="44" spans="2:48">
+      <c r="B44" s="18">
         <v>0.75</v>
       </c>
       <c r="C44" s="5" t="str">
@@ -9373,9 +9965,9 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B45" s="14">
-        <v>0.77083333333333304</v>
+    <row r="45" spans="2:48">
+      <c r="B45" s="18">
+        <v>0.770833333333333</v>
       </c>
       <c r="C45" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A39="","",_jiaore6_day_hour!A39)</f>
@@ -9562,9 +10154,9 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B46" s="14">
-        <v>0.79166666666666696</v>
+    <row r="46" spans="2:48">
+      <c r="B46" s="18">
+        <v>0.791666666666667</v>
       </c>
       <c r="C46" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A40="","",_jiaore6_day_hour!A40)</f>
@@ -9751,8 +10343,8 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B47" s="14">
+    <row r="47" spans="2:48">
+      <c r="B47" s="18">
         <v>0.8125</v>
       </c>
       <c r="C47" s="5" t="str">
@@ -9940,9 +10532,9 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B48" s="14">
-        <v>0.83333333333333304</v>
+    <row r="48" spans="2:48">
+      <c r="B48" s="18">
+        <v>0.833333333333333</v>
       </c>
       <c r="C48" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A42="","",_jiaore6_day_hour!A42)</f>
@@ -10129,9 +10721,9 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B49" s="14">
-        <v>0.85416666666666696</v>
+    <row r="49" spans="2:48">
+      <c r="B49" s="18">
+        <v>0.854166666666667</v>
       </c>
       <c r="C49" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A43="","",_jiaore6_day_hour!A43)</f>
@@ -10318,8 +10910,8 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B50" s="14">
+    <row r="50" spans="2:48">
+      <c r="B50" s="18">
         <v>0.875</v>
       </c>
       <c r="C50" s="5" t="str">
@@ -10507,9 +11099,9 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B51" s="14">
-        <v>0.89583333333333304</v>
+    <row r="51" spans="2:48">
+      <c r="B51" s="18">
+        <v>0.895833333333333</v>
       </c>
       <c r="C51" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A45="","",_jiaore6_day_hour!A45)</f>
@@ -10696,9 +11288,9 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B52" s="14">
-        <v>0.91666666666666596</v>
+    <row r="52" spans="2:48">
+      <c r="B52" s="18">
+        <v>0.916666666666666</v>
       </c>
       <c r="C52" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A46="","",_jiaore6_day_hour!A46)</f>
@@ -10885,8 +11477,8 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B53" s="14">
+    <row r="53" spans="2:48">
+      <c r="B53" s="18">
         <v>0.937499999999999</v>
       </c>
       <c r="C53" s="5" t="str">
@@ -11074,9 +11666,9 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B54" s="14">
-        <v>0.95833333333333204</v>
+    <row r="54" spans="2:48">
+      <c r="B54" s="18">
+        <v>0.958333333333332</v>
       </c>
       <c r="C54" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A48="","",_jiaore6_day_hour!A48)</f>
@@ -11263,9 +11855,9 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B55" s="14">
-        <v>0.97916666666666496</v>
+    <row r="55" spans="2:48">
+      <c r="B55" s="18">
+        <v>0.979166666666665</v>
       </c>
       <c r="C55" s="5" t="str">
         <f>IF(_jiaore6_day_hour!A49="","",_jiaore6_day_hour!A49)</f>
@@ -11452,8 +12044,8 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B56" s="18" t="s">
+    <row r="56" spans="2:48">
+      <c r="B56" s="22" t="s">
         <v>96</v>
       </c>
       <c r="C56" s="5"/>
@@ -11503,8 +12095,8 @@
       <c r="AU56" s="5"/>
       <c r="AV56" s="6"/>
     </row>
-    <row r="57" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B57" s="18" t="s">
+    <row r="57" spans="2:48">
+      <c r="B57" s="22" t="s">
         <v>97</v>
       </c>
       <c r="C57" s="5"/>
@@ -11554,8 +12146,8 @@
       <c r="AU57" s="5"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B58" s="18" t="s">
+    <row r="58" spans="2:48">
+      <c r="B58" s="22" t="s">
         <v>98</v>
       </c>
       <c r="C58" s="5"/>
@@ -11605,8 +12197,8 @@
       <c r="AU58" s="5"/>
       <c r="AV58" s="6"/>
     </row>
-    <row r="59" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="B59" s="18" t="s">
+    <row r="59" spans="2:48">
+      <c r="B59" s="22" t="s">
         <v>99</v>
       </c>
       <c r="C59" s="5"/>
@@ -11656,130 +12248,140 @@
       <c r="AU59" s="5"/>
       <c r="AV59" s="6"/>
     </row>
-    <row r="60" spans="2:48" ht="72" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B60" s="31" t="s">
+    <row r="60" ht="72" customHeight="1" spans="2:48">
+      <c r="B60" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="C60" s="32"/>
-      <c r="D60" s="32"/>
-      <c r="E60" s="32"/>
-      <c r="F60" s="32"/>
-      <c r="G60" s="32"/>
-      <c r="H60" s="32"/>
-      <c r="I60" s="32"/>
-      <c r="J60" s="32"/>
-      <c r="K60" s="32"/>
-      <c r="L60" s="32"/>
-      <c r="M60" s="33" t="s">
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="N60" s="32"/>
-      <c r="O60" s="32"/>
-      <c r="P60" s="32"/>
-      <c r="Q60" s="32"/>
-      <c r="R60" s="32"/>
-      <c r="S60" s="32"/>
-      <c r="T60" s="32"/>
-      <c r="U60" s="32"/>
-      <c r="V60" s="32"/>
-      <c r="W60" s="32"/>
-      <c r="X60" s="33" t="s">
+      <c r="N60" s="24"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="24"/>
+      <c r="Q60" s="24"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="24"/>
+      <c r="T60" s="24"/>
+      <c r="U60" s="24"/>
+      <c r="V60" s="24"/>
+      <c r="W60" s="24"/>
+      <c r="X60" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="Y60" s="32"/>
-      <c r="Z60" s="32"/>
-      <c r="AA60" s="32"/>
-      <c r="AB60" s="32"/>
-      <c r="AC60" s="32"/>
-      <c r="AD60" s="32"/>
-      <c r="AE60" s="32"/>
-      <c r="AF60" s="32"/>
-      <c r="AG60" s="32"/>
-      <c r="AH60" s="32"/>
-      <c r="AI60" s="45"/>
-      <c r="AJ60" s="46"/>
-      <c r="AK60" s="46"/>
-      <c r="AL60" s="46"/>
-      <c r="AM60" s="46"/>
-      <c r="AN60" s="46"/>
-      <c r="AO60" s="46"/>
-      <c r="AP60" s="46"/>
-      <c r="AQ60" s="46"/>
-      <c r="AR60" s="46"/>
-      <c r="AS60" s="46"/>
-      <c r="AT60" s="46"/>
-      <c r="AU60" s="46"/>
+      <c r="Y60" s="24"/>
+      <c r="Z60" s="24"/>
+      <c r="AA60" s="24"/>
+      <c r="AB60" s="24"/>
+      <c r="AC60" s="24"/>
+      <c r="AD60" s="24"/>
+      <c r="AE60" s="24"/>
+      <c r="AF60" s="24"/>
+      <c r="AG60" s="24"/>
+      <c r="AH60" s="24"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="40"/>
+      <c r="AL60" s="40"/>
+      <c r="AM60" s="40"/>
+      <c r="AN60" s="40"/>
+      <c r="AO60" s="40"/>
+      <c r="AP60" s="40"/>
+      <c r="AQ60" s="40"/>
+      <c r="AR60" s="40"/>
+      <c r="AS60" s="40"/>
+      <c r="AT60" s="40"/>
+      <c r="AU60" s="40"/>
       <c r="AV60" s="47"/>
     </row>
-    <row r="61" spans="2:48" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="34" t="s">
+    <row r="61" ht="14.45" customHeight="1" spans="2:48">
+      <c r="B61" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="36" t="s">
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="N61" s="35"/>
-      <c r="O61" s="35"/>
-      <c r="P61" s="35"/>
-      <c r="Q61" s="35"/>
-      <c r="R61" s="35"/>
-      <c r="S61" s="35"/>
-      <c r="T61" s="35"/>
-      <c r="U61" s="35"/>
-      <c r="V61" s="35"/>
-      <c r="W61" s="35"/>
-      <c r="X61" s="36" t="s">
+      <c r="N61" s="26"/>
+      <c r="O61" s="26"/>
+      <c r="P61" s="26"/>
+      <c r="Q61" s="26"/>
+      <c r="R61" s="26"/>
+      <c r="S61" s="26"/>
+      <c r="T61" s="26"/>
+      <c r="U61" s="26"/>
+      <c r="V61" s="26"/>
+      <c r="W61" s="26"/>
+      <c r="X61" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="Y61" s="35"/>
-      <c r="Z61" s="35"/>
-      <c r="AA61" s="35"/>
-      <c r="AB61" s="35"/>
-      <c r="AC61" s="35"/>
-      <c r="AD61" s="35"/>
-      <c r="AE61" s="35"/>
-      <c r="AF61" s="35"/>
-      <c r="AG61" s="35"/>
-      <c r="AH61" s="35"/>
-      <c r="AI61" s="48"/>
-      <c r="AJ61" s="49"/>
-      <c r="AK61" s="49"/>
-      <c r="AL61" s="49"/>
-      <c r="AM61" s="49"/>
-      <c r="AN61" s="49"/>
-      <c r="AO61" s="49"/>
-      <c r="AP61" s="49"/>
-      <c r="AQ61" s="49"/>
-      <c r="AR61" s="49"/>
-      <c r="AS61" s="49"/>
-      <c r="AT61" s="49"/>
-      <c r="AU61" s="49"/>
-      <c r="AV61" s="50"/>
+      <c r="Y61" s="26"/>
+      <c r="Z61" s="26"/>
+      <c r="AA61" s="26"/>
+      <c r="AB61" s="26"/>
+      <c r="AC61" s="26"/>
+      <c r="AD61" s="26"/>
+      <c r="AE61" s="26"/>
+      <c r="AF61" s="26"/>
+      <c r="AG61" s="26"/>
+      <c r="AH61" s="26"/>
+      <c r="AI61" s="41"/>
+      <c r="AJ61" s="42"/>
+      <c r="AK61" s="42"/>
+      <c r="AL61" s="42"/>
+      <c r="AM61" s="42"/>
+      <c r="AN61" s="42"/>
+      <c r="AO61" s="42"/>
+      <c r="AP61" s="42"/>
+      <c r="AQ61" s="42"/>
+      <c r="AR61" s="42"/>
+      <c r="AS61" s="42"/>
+      <c r="AT61" s="42"/>
+      <c r="AU61" s="42"/>
+      <c r="AV61" s="48"/>
     </row>
-    <row r="62" spans="2:48" x14ac:dyDescent="0.15">
-      <c r="C62" s="19"/>
+    <row r="62" spans="3:3">
+      <c r="C62" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="AM3:AV4"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="AI60:AV61"/>
-    <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="U3:V4"/>
-    <mergeCell ref="W3:X4"/>
-    <mergeCell ref="Y3:Z4"/>
-    <mergeCell ref="AA3:AB4"/>
-    <mergeCell ref="AC3:AJ4"/>
+    <mergeCell ref="B1:AK1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="S2:V2"/>
+    <mergeCell ref="AD2:AK2"/>
+    <mergeCell ref="C3:L3"/>
+    <mergeCell ref="M3:Q3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C4:H4"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="I5:J5"/>
+    <mergeCell ref="K5:L5"/>
+    <mergeCell ref="AC5:AF5"/>
+    <mergeCell ref="AG5:AJ5"/>
+    <mergeCell ref="B60:L60"/>
+    <mergeCell ref="M60:W60"/>
+    <mergeCell ref="X60:AH60"/>
     <mergeCell ref="B61:L61"/>
     <mergeCell ref="M61:W61"/>
     <mergeCell ref="X61:AH61"/>
@@ -11794,44 +12396,35 @@
     <mergeCell ref="V5:V6"/>
     <mergeCell ref="W5:W6"/>
     <mergeCell ref="X5:X6"/>
-    <mergeCell ref="AC5:AF5"/>
-    <mergeCell ref="AG5:AJ5"/>
-    <mergeCell ref="B60:L60"/>
-    <mergeCell ref="M60:W60"/>
-    <mergeCell ref="X60:AH60"/>
-    <mergeCell ref="C4:H4"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="I5:J5"/>
-    <mergeCell ref="K5:L5"/>
-    <mergeCell ref="B1:AK1"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="S2:V2"/>
-    <mergeCell ref="AD2:AK2"/>
-    <mergeCell ref="C3:L3"/>
-    <mergeCell ref="M3:Q3"/>
-    <mergeCell ref="R3:T3"/>
     <mergeCell ref="AK3:AK5"/>
+    <mergeCell ref="AL3:AL5"/>
+    <mergeCell ref="AM3:AV4"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="AI60:AV61"/>
+    <mergeCell ref="U3:V4"/>
+    <mergeCell ref="W3:X4"/>
+    <mergeCell ref="Y3:Z4"/>
+    <mergeCell ref="AA3:AB4"/>
+    <mergeCell ref="AC3:AJ4"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:AT1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:AT1"/>
+      <selection activeCell="A1" sqref="A1:AT1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:46" ht="56.25" x14ac:dyDescent="0.15">
+    <row r="1" ht="56.25" spans="1:46">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -11972,22 +12565,23 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <phoneticPr fontId="18" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="20490" windowHeight="7785"/>
   </bookViews>
   <sheets>
     <sheet name="2.6#焦炉加热制度表（日）" sheetId="1" r:id="rId1"/>
@@ -598,8 +598,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -690,7 +690,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -698,7 +698,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,22 +706,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -734,6 +719,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -755,7 +741,50 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -778,7 +807,7 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -786,7 +815,7 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -801,38 +830,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -870,7 +870,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -882,7 +936,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -894,19 +948,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -918,43 +978,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -972,43 +996,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1020,7 +1008,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1032,7 +1026,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1044,13 +1044,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1255,16 +1255,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1285,31 +1285,27 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1327,19 +1323,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1347,8 +1347,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1358,10 +1358,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1370,139 +1370,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -2430,9 +2430,9 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="30">
-        <f>_metadata!B2</f>
-        <v>0</v>
+      <c r="S2" s="30" t="str">
+        <f>IF(_metadata!B2="","",_metadata!B2)</f>
+        <v/>
       </c>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>

--- a/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
+++ b/excel/finished/焦化/CK67-6#焦炉加热制度表（日）报表设计.xlsx
@@ -4,21 +4,70 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785"/>
+    <workbookView windowWidth="20490" windowHeight="7785" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="2.6#焦炉加热制度表（日）" sheetId="1" r:id="rId1"/>
     <sheet name="_jiaore6_day_hour" sheetId="2" r:id="rId2"/>
-    <sheet name="_metadata" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>6# 焦  炉  加  热  制  度  记  录</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>年</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>月</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">           </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Times New Roman"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">         </t>
+    </r>
   </si>
   <si>
     <t>编号：SGSSG-BSMCS35-G003-11A</t>
@@ -598,8 +647,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="38">
     <font>
@@ -661,11 +710,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="14"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <name val="宋体"/>
@@ -690,79 +734,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -770,6 +742,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -783,10 +762,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -798,27 +778,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -836,6 +799,92 @@
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
     </font>
     <font>
       <vertAlign val="superscript"/>
@@ -870,7 +919,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -888,19 +1081,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -912,97 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1012,50 +1103,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="24">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1169,15 +1218,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1255,17 +1295,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1287,11 +1321,44 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1311,24 +1378,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1343,25 +1392,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1370,7 +1410,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1379,132 +1419,132 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1591,49 +1631,46 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="50" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="10" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1642,10 +1679,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1733,7 +1770,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13738225" y="6626860"/>
+          <a:off x="13738225" y="6560185"/>
           <a:ext cx="4687570" cy="134620"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1927,7 +1964,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="774065"/>
+          <a:off x="6858000" y="707390"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -1973,7 +2010,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="1116965"/>
+          <a:off x="6858000" y="1050290"/>
           <a:ext cx="0" cy="0"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2019,7 +2056,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="774065"/>
+          <a:off x="6858000" y="707390"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2065,7 +2102,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6858000" y="774065"/>
+          <a:off x="6858000" y="707390"/>
           <a:ext cx="0" cy="342900"/>
         </a:xfrm>
         <a:prstGeom prst="line">
@@ -2352,8 +2389,8 @@
   <sheetPr/>
   <dimension ref="A1:AV62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="S2" sqref="S2:V2"/>
+    <sheetView topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7:AV7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2361,7 +2398,7 @@
     <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="22.5" spans="2:48">
+    <row r="1" s="7" customFormat="1" ht="22.5" spans="2:48">
       <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
@@ -2401,18 +2438,18 @@
       <c r="AJ1" s="8"/>
       <c r="AK1" s="8"/>
       <c r="AL1" s="8"/>
-      <c r="AM1" s="33"/>
-      <c r="AN1" s="33"/>
-      <c r="AO1" s="33"/>
-      <c r="AP1" s="33"/>
-      <c r="AQ1" s="33"/>
-      <c r="AR1" s="33"/>
-      <c r="AS1" s="33"/>
-      <c r="AT1" s="33"/>
-      <c r="AU1" s="33"/>
-      <c r="AV1" s="33"/>
+      <c r="AM1" s="32"/>
+      <c r="AN1" s="32"/>
+      <c r="AO1" s="32"/>
+      <c r="AP1" s="32"/>
+      <c r="AQ1" s="32"/>
+      <c r="AR1" s="32"/>
+      <c r="AS1" s="32"/>
+      <c r="AT1" s="32"/>
+      <c r="AU1" s="32"/>
+      <c r="AV1" s="32"/>
     </row>
-    <row r="2" ht="19.5" spans="2:48">
+    <row r="2" s="7" customFormat="1" ht="14.25" spans="2:48">
       <c r="B2" s="9"/>
       <c r="C2" s="9"/>
       <c r="D2" s="10"/>
@@ -2430,9 +2467,8 @@
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
-      <c r="S2" s="30" t="str">
-        <f>IF(_metadata!B2="","",_metadata!B2)</f>
-        <v/>
+      <c r="S2" s="30" t="s">
+        <v>1</v>
       </c>
       <c r="T2" s="30"/>
       <c r="U2" s="30"/>
@@ -2444,34 +2480,34 @@
       <c r="AA2" s="11"/>
       <c r="AB2" s="11"/>
       <c r="AC2" s="11"/>
-      <c r="AD2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE2" s="32"/>
-      <c r="AF2" s="32"/>
-      <c r="AG2" s="32"/>
-      <c r="AH2" s="32"/>
-      <c r="AI2" s="32"/>
-      <c r="AJ2" s="32"/>
-      <c r="AK2" s="32"/>
-      <c r="AL2" s="32"/>
-      <c r="AM2" s="32"/>
-      <c r="AN2" s="32"/>
-      <c r="AO2" s="32"/>
-      <c r="AP2" s="32"/>
-      <c r="AQ2" s="32"/>
-      <c r="AR2" s="32"/>
-      <c r="AS2" s="32"/>
-      <c r="AT2" s="32"/>
-      <c r="AU2" s="32"/>
-      <c r="AV2" s="32"/>
+      <c r="AD2" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="AE2" s="30"/>
+      <c r="AF2" s="30"/>
+      <c r="AG2" s="30"/>
+      <c r="AH2" s="30"/>
+      <c r="AI2" s="30"/>
+      <c r="AJ2" s="30"/>
+      <c r="AK2" s="30"/>
+      <c r="AL2" s="30"/>
+      <c r="AM2" s="30"/>
+      <c r="AN2" s="30"/>
+      <c r="AO2" s="30"/>
+      <c r="AP2" s="30"/>
+      <c r="AQ2" s="30"/>
+      <c r="AR2" s="30"/>
+      <c r="AS2" s="30"/>
+      <c r="AT2" s="30"/>
+      <c r="AU2" s="30"/>
+      <c r="AV2" s="30"/>
     </row>
-    <row r="3" ht="18.95" customHeight="1" spans="2:48">
+    <row r="3" s="7" customFormat="1" ht="18.95" customHeight="1" spans="2:48">
       <c r="B3" s="12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3" s="13"/>
       <c r="E3" s="13"/>
@@ -2483,35 +2519,35 @@
       <c r="K3" s="13"/>
       <c r="L3" s="13"/>
       <c r="M3" s="13" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N3" s="13"/>
       <c r="O3" s="13"/>
       <c r="P3" s="13"/>
       <c r="Q3" s="13"/>
       <c r="R3" s="13" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
       <c r="U3" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="V3" s="13"/>
       <c r="W3" s="13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="X3" s="13"/>
       <c r="Y3" s="13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="13"/>
       <c r="AA3" s="13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB3" s="13"/>
       <c r="AC3" s="13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AD3" s="13"/>
       <c r="AE3" s="13"/>
@@ -2521,28 +2557,28 @@
       <c r="AI3" s="13"/>
       <c r="AJ3" s="13"/>
       <c r="AK3" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="AL3" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="AM3" s="35" t="s">
+      <c r="AL3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AN3" s="35"/>
-      <c r="AO3" s="35"/>
-      <c r="AP3" s="35"/>
-      <c r="AQ3" s="35"/>
-      <c r="AR3" s="35"/>
-      <c r="AS3" s="35"/>
-      <c r="AT3" s="35"/>
-      <c r="AU3" s="35"/>
-      <c r="AV3" s="43"/>
+      <c r="AM3" s="34" t="s">
+        <v>14</v>
+      </c>
+      <c r="AN3" s="34"/>
+      <c r="AO3" s="34"/>
+      <c r="AP3" s="34"/>
+      <c r="AQ3" s="34"/>
+      <c r="AR3" s="34"/>
+      <c r="AS3" s="34"/>
+      <c r="AT3" s="34"/>
+      <c r="AU3" s="34"/>
+      <c r="AV3" s="42"/>
     </row>
-    <row r="4" spans="2:48">
+    <row r="4" s="7" customFormat="1" spans="2:48">
       <c r="B4" s="14"/>
       <c r="C4" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="15"/>
       <c r="E4" s="15"/>
@@ -2550,30 +2586,30 @@
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J4" s="15"/>
       <c r="K4" s="15"/>
       <c r="L4" s="15"/>
       <c r="M4" s="15" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="N4" s="15"/>
       <c r="O4" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="S4" s="15"/>
       <c r="T4" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="U4" s="15"/>
       <c r="V4" s="15"/>
@@ -2592,43 +2628,43 @@
       <c r="AI4" s="15"/>
       <c r="AJ4" s="15"/>
       <c r="AK4" s="15"/>
-      <c r="AL4" s="36"/>
-      <c r="AM4" s="37"/>
-      <c r="AN4" s="37"/>
-      <c r="AO4" s="37"/>
-      <c r="AP4" s="37"/>
-      <c r="AQ4" s="37"/>
-      <c r="AR4" s="37"/>
-      <c r="AS4" s="37"/>
-      <c r="AT4" s="37"/>
-      <c r="AU4" s="37"/>
-      <c r="AV4" s="44"/>
+      <c r="AL4" s="35"/>
+      <c r="AM4" s="36"/>
+      <c r="AN4" s="36"/>
+      <c r="AO4" s="36"/>
+      <c r="AP4" s="36"/>
+      <c r="AQ4" s="36"/>
+      <c r="AR4" s="36"/>
+      <c r="AS4" s="36"/>
+      <c r="AT4" s="36"/>
+      <c r="AU4" s="36"/>
+      <c r="AV4" s="43"/>
     </row>
-    <row r="5" spans="2:48">
+    <row r="5" s="7" customFormat="1" spans="2:48">
       <c r="B5" s="14"/>
       <c r="C5" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="15"/>
       <c r="E5" s="15" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
       <c r="H5" s="15"/>
       <c r="I5" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="15"/>
       <c r="K5" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L5" s="15"/>
       <c r="M5" s="15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="N5" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="O5" s="15"/>
       <c r="P5" s="15"/>
@@ -2637,105 +2673,105 @@
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="V5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="W5" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="W5" s="15" t="s">
-        <v>22</v>
-      </c>
       <c r="X5" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB5" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC5" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="Y5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA5" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB5" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC5" s="15" t="s">
-        <v>22</v>
       </c>
       <c r="AD5" s="15"/>
       <c r="AE5" s="15"/>
       <c r="AF5" s="15"/>
       <c r="AG5" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH5" s="15"/>
       <c r="AI5" s="15"/>
       <c r="AJ5" s="15"/>
       <c r="AK5" s="15"/>
-      <c r="AL5" s="36"/>
+      <c r="AL5" s="35"/>
       <c r="AM5" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AN5" s="15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO5" s="15" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP5" s="15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ5" s="15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AR5" s="15" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="AS5" s="15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AT5" s="15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="AU5" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="AV5" s="45" t="s">
         <v>36</v>
       </c>
+      <c r="AV5" s="44" t="s">
+        <v>37</v>
+      </c>
     </row>
-    <row r="6" ht="22.5" spans="2:48">
+    <row r="6" s="7" customFormat="1" ht="22.5" spans="2:48">
       <c r="B6" s="14"/>
       <c r="C6" s="15" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="15" t="s">
+      <c r="J6" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="K6" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="K6" s="15" t="s">
-        <v>37</v>
-      </c>
       <c r="L6" s="15" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="M6" s="15"/>
       <c r="N6" s="15"/>
@@ -2743,29 +2779,29 @@
       <c r="P6" s="15"/>
       <c r="Q6" s="15"/>
       <c r="R6" s="31" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S6" s="15" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T6" s="15" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
       <c r="W6" s="15"/>
       <c r="X6" s="15"/>
       <c r="Y6" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="Z6" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA6" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="AA6" s="15" t="s">
-        <v>41</v>
-      </c>
       <c r="AB6" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC6" s="15">
         <v>1</v>
@@ -2792,187 +2828,187 @@
         <v>4</v>
       </c>
       <c r="AK6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AL6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM6" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN6" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AO6" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AP6" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AQ6" s="15" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AR6" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="AS6" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="AT6" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="AS6" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="AT6" s="15" t="s">
-        <v>45</v>
-      </c>
       <c r="AU6" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="AV6" s="45" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="AV6" s="44" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="7" ht="56.25" spans="1:48">
+    <row r="7" s="7" customFormat="1" ht="56.25" spans="1:48">
       <c r="A7" s="16"/>
       <c r="B7" s="17" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="M7" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P7" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="R7" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="U7" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="W7" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="X7" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="Y7" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="Z7" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AA7" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AC7" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AE7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AF7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AG7" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AH7" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AI7" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AJ7" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AK7" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AL7" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AM7" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AN7" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AO7" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AP7" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AQ7" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AR7" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AS7" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AT7" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AU7" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AV7" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
-    <row r="8" spans="2:48">
+    <row r="8" s="7" customFormat="1" spans="2:48">
       <c r="B8" s="18">
         <v>0</v>
       </c>
@@ -3161,7 +3197,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="2:48">
+    <row r="9" s="7" customFormat="1" spans="2:48">
       <c r="B9" s="18">
         <v>0.0208333333333333</v>
       </c>
@@ -3345,12 +3381,12 @@
         <f>IF(_jiaore6_day_hour!AS3="","",_jiaore6_day_hour!AS3)</f>
         <v/>
       </c>
-      <c r="AV9" s="46" t="str">
+      <c r="AV9" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT3="","",_jiaore6_day_hour!AT3)</f>
         <v/>
       </c>
     </row>
-    <row r="10" ht="14.1" customHeight="1" spans="2:48">
+    <row r="10" s="7" customFormat="1" ht="14.1" customHeight="1" spans="2:48">
       <c r="B10" s="18">
         <v>0.0416666666666667</v>
       </c>
@@ -3534,12 +3570,12 @@
         <f>IF(_jiaore6_day_hour!AS4="","",_jiaore6_day_hour!AS4)</f>
         <v/>
       </c>
-      <c r="AV10" s="46" t="str">
+      <c r="AV10" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT4="","",_jiaore6_day_hour!AT4)</f>
         <v/>
       </c>
     </row>
-    <row r="11" spans="2:48">
+    <row r="11" s="7" customFormat="1" spans="2:48">
       <c r="B11" s="18">
         <v>0.0625</v>
       </c>
@@ -3687,15 +3723,15 @@
         <f>IF(_jiaore6_day_hour!AJ5="","",_jiaore6_day_hour!AJ5)</f>
         <v/>
       </c>
-      <c r="AM11" s="38" t="str">
+      <c r="AM11" s="37" t="str">
         <f>IF(_jiaore6_day_hour!AK5="","",_jiaore6_day_hour!AK5)</f>
         <v/>
       </c>
-      <c r="AN11" s="38" t="str">
+      <c r="AN11" s="37" t="str">
         <f>IF(_jiaore6_day_hour!AL5="","",_jiaore6_day_hour!AL5)</f>
         <v/>
       </c>
-      <c r="AO11" s="38" t="str">
+      <c r="AO11" s="37" t="str">
         <f>IF(_jiaore6_day_hour!AM5="","",_jiaore6_day_hour!AM5)</f>
         <v/>
       </c>
@@ -3723,12 +3759,12 @@
         <f>IF(_jiaore6_day_hour!AS5="","",_jiaore6_day_hour!AS5)</f>
         <v/>
       </c>
-      <c r="AV11" s="46" t="str">
+      <c r="AV11" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT5="","",_jiaore6_day_hour!AT5)</f>
         <v/>
       </c>
     </row>
-    <row r="12" ht="14.1" customHeight="1" spans="2:48">
+    <row r="12" s="7" customFormat="1" ht="14.1" customHeight="1" spans="2:48">
       <c r="B12" s="18">
         <v>0.0833333333333333</v>
       </c>
@@ -3912,12 +3948,12 @@
         <f>IF(_jiaore6_day_hour!AS6="","",_jiaore6_day_hour!AS6)</f>
         <v/>
       </c>
-      <c r="AV12" s="46" t="str">
+      <c r="AV12" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT6="","",_jiaore6_day_hour!AT6)</f>
         <v/>
       </c>
     </row>
-    <row r="13" spans="2:48">
+    <row r="13" s="7" customFormat="1" spans="2:48">
       <c r="B13" s="18">
         <v>0.104166666666667</v>
       </c>
@@ -4101,12 +4137,12 @@
         <f>IF(_jiaore6_day_hour!AS7="","",_jiaore6_day_hour!AS7)</f>
         <v/>
       </c>
-      <c r="AV13" s="46" t="str">
+      <c r="AV13" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT7="","",_jiaore6_day_hour!AT7)</f>
         <v/>
       </c>
     </row>
-    <row r="14" spans="2:48">
+    <row r="14" s="7" customFormat="1" spans="2:48">
       <c r="B14" s="18">
         <v>0.125</v>
       </c>
@@ -4290,12 +4326,12 @@
         <f>IF(_jiaore6_day_hour!AS8="","",_jiaore6_day_hour!AS8)</f>
         <v/>
       </c>
-      <c r="AV14" s="46" t="str">
+      <c r="AV14" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT8="","",_jiaore6_day_hour!AT8)</f>
         <v/>
       </c>
     </row>
-    <row r="15" spans="2:48">
+    <row r="15" s="7" customFormat="1" spans="2:48">
       <c r="B15" s="18">
         <v>0.145833333333333</v>
       </c>
@@ -4479,12 +4515,12 @@
         <f>IF(_jiaore6_day_hour!AS9="","",_jiaore6_day_hour!AS9)</f>
         <v/>
       </c>
-      <c r="AV15" s="46" t="str">
+      <c r="AV15" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT9="","",_jiaore6_day_hour!AT9)</f>
         <v/>
       </c>
     </row>
-    <row r="16" spans="2:48">
+    <row r="16" s="7" customFormat="1" spans="2:48">
       <c r="B16" s="18">
         <v>0.166666666666667</v>
       </c>
@@ -4668,12 +4704,12 @@
         <f>IF(_jiaore6_day_hour!AS10="","",_jiaore6_day_hour!AS10)</f>
         <v/>
       </c>
-      <c r="AV16" s="46" t="str">
+      <c r="AV16" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT10="","",_jiaore6_day_hour!AT10)</f>
         <v/>
       </c>
     </row>
-    <row r="17" spans="2:48">
+    <row r="17" s="7" customFormat="1" spans="2:48">
       <c r="B17" s="18">
         <v>0.1875</v>
       </c>
@@ -4857,12 +4893,12 @@
         <f>IF(_jiaore6_day_hour!AS11="","",_jiaore6_day_hour!AS11)</f>
         <v/>
       </c>
-      <c r="AV17" s="46" t="str">
+      <c r="AV17" s="45" t="str">
         <f>IF(_jiaore6_day_hour!AT11="","",_jiaore6_day_hour!AT11)</f>
         <v/>
       </c>
     </row>
-    <row r="18" spans="2:48">
+    <row r="18" s="7" customFormat="1" spans="2:48">
       <c r="B18" s="18">
         <v>0.208333333333333</v>
       </c>
@@ -5051,7 +5087,7 @@
         <v/>
       </c>
     </row>
-    <row r="19" spans="2:48">
+    <row r="19" s="7" customFormat="1" spans="2:48">
       <c r="B19" s="18">
         <v>0.229166666666667</v>
       </c>
@@ -5240,7 +5276,7 @@
         <v/>
       </c>
     </row>
-    <row r="20" spans="2:48">
+    <row r="20" s="7" customFormat="1" spans="2:48">
       <c r="B20" s="18">
         <v>0.25</v>
       </c>
@@ -5429,7 +5465,7 @@
         <v/>
       </c>
     </row>
-    <row r="21" spans="2:48">
+    <row r="21" s="7" customFormat="1" spans="2:48">
       <c r="B21" s="18">
         <v>0.270833333333333</v>
       </c>
@@ -5618,7 +5654,7 @@
         <v/>
       </c>
     </row>
-    <row r="22" spans="2:48">
+    <row r="22" s="7" customFormat="1" spans="2:48">
       <c r="B22" s="18">
         <v>0.291666666666667</v>
       </c>
@@ -5807,7 +5843,7 @@
         <v/>
       </c>
     </row>
-    <row r="23" spans="2:48">
+    <row r="23" s="7" customFormat="1" spans="2:48">
       <c r="B23" s="18">
         <v>0.3125</v>
       </c>
@@ -5996,7 +6032,7 @@
         <v/>
       </c>
     </row>
-    <row r="24" spans="2:48">
+    <row r="24" s="7" customFormat="1" spans="2:48">
       <c r="B24" s="18">
         <v>0.333333333333333</v>
       </c>
@@ -6185,7 +6221,7 @@
         <v/>
       </c>
     </row>
-    <row r="25" spans="2:48">
+    <row r="25" s="7" customFormat="1" spans="2:48">
       <c r="B25" s="18">
         <v>0.354166666666667</v>
       </c>
@@ -6374,7 +6410,7 @@
         <v/>
       </c>
     </row>
-    <row r="26" spans="2:48">
+    <row r="26" s="7" customFormat="1" spans="2:48">
       <c r="B26" s="18">
         <v>0.375</v>
       </c>
@@ -6563,7 +6599,7 @@
         <v/>
       </c>
     </row>
-    <row r="27" spans="2:48">
+    <row r="27" s="7" customFormat="1" spans="2:48">
       <c r="B27" s="18">
         <v>0.395833333333333</v>
       </c>
@@ -6752,7 +6788,7 @@
         <v/>
       </c>
     </row>
-    <row r="28" spans="2:48">
+    <row r="28" s="7" customFormat="1" spans="2:48">
       <c r="B28" s="18">
         <v>0.416666666666667</v>
       </c>
@@ -6941,7 +6977,7 @@
         <v/>
       </c>
     </row>
-    <row r="29" spans="2:48">
+    <row r="29" s="7" customFormat="1" spans="2:48">
       <c r="B29" s="18">
         <v>0.4375</v>
       </c>
@@ -7130,7 +7166,7 @@
         <v/>
       </c>
     </row>
-    <row r="30" spans="2:48">
+    <row r="30" s="7" customFormat="1" spans="2:48">
       <c r="B30" s="18">
         <v>0.458333333333333</v>
       </c>
@@ -7319,7 +7355,7 @@
         <v/>
       </c>
     </row>
-    <row r="31" spans="2:48">
+    <row r="31" s="7" customFormat="1" spans="2:48">
       <c r="B31" s="18">
         <v>0.479166666666667</v>
       </c>
@@ -7508,7 +7544,7 @@
         <v/>
       </c>
     </row>
-    <row r="32" spans="2:48">
+    <row r="32" s="7" customFormat="1" spans="2:48">
       <c r="B32" s="18">
         <v>0.5</v>
       </c>
@@ -7697,7 +7733,7 @@
         <v/>
       </c>
     </row>
-    <row r="33" spans="2:48">
+    <row r="33" s="7" customFormat="1" spans="2:48">
       <c r="B33" s="18">
         <v>0.520833333333333</v>
       </c>
@@ -7886,7 +7922,7 @@
         <v/>
       </c>
     </row>
-    <row r="34" spans="2:48">
+    <row r="34" s="7" customFormat="1" spans="2:48">
       <c r="B34" s="18">
         <v>0.541666666666667</v>
       </c>
@@ -8075,7 +8111,7 @@
         <v/>
       </c>
     </row>
-    <row r="35" spans="2:48">
+    <row r="35" s="7" customFormat="1" spans="2:48">
       <c r="B35" s="18">
         <v>0.5625</v>
       </c>
@@ -8264,7 +8300,7 @@
         <v/>
       </c>
     </row>
-    <row r="36" spans="2:48">
+    <row r="36" s="7" customFormat="1" spans="2:48">
       <c r="B36" s="18">
         <v>0.583333333333333</v>
       </c>
@@ -8453,7 +8489,7 @@
         <v/>
       </c>
     </row>
-    <row r="37" spans="2:48">
+    <row r="37" s="7" customFormat="1" spans="2:48">
       <c r="B37" s="18">
         <v>0.604166666666667</v>
       </c>
@@ -8642,7 +8678,7 @@
         <v/>
       </c>
     </row>
-    <row r="38" spans="2:48">
+    <row r="38" s="7" customFormat="1" spans="2:48">
       <c r="B38" s="18">
         <v>0.625</v>
       </c>
@@ -8831,7 +8867,7 @@
         <v/>
       </c>
     </row>
-    <row r="39" spans="2:48">
+    <row r="39" s="7" customFormat="1" spans="2:48">
       <c r="B39" s="18">
         <v>0.645833333333333</v>
       </c>
@@ -9020,7 +9056,7 @@
         <v/>
       </c>
     </row>
-    <row r="40" spans="2:48">
+    <row r="40" s="7" customFormat="1" spans="2:48">
       <c r="B40" s="18">
         <v>0.666666666666667</v>
       </c>
@@ -9209,7 +9245,7 @@
         <v/>
       </c>
     </row>
-    <row r="41" spans="2:48">
+    <row r="41" s="7" customFormat="1" spans="2:48">
       <c r="B41" s="18">
         <v>0.6875</v>
       </c>
@@ -9398,7 +9434,7 @@
         <v/>
       </c>
     </row>
-    <row r="42" spans="2:48">
+    <row r="42" s="7" customFormat="1" spans="2:48">
       <c r="B42" s="18">
         <v>0.708333333333333</v>
       </c>
@@ -9587,7 +9623,7 @@
         <v/>
       </c>
     </row>
-    <row r="43" spans="2:48">
+    <row r="43" s="7" customFormat="1" spans="2:48">
       <c r="B43" s="18">
         <v>0.729166666666667</v>
       </c>
@@ -9776,7 +9812,7 @@
         <v/>
       </c>
     </row>
-    <row r="44" spans="2:48">
+    <row r="44" s="7" customFormat="1" spans="2:48">
       <c r="B44" s="18">
         <v>0.75</v>
       </c>
@@ -9965,7 +10001,7 @@
         <v/>
       </c>
     </row>
-    <row r="45" spans="2:48">
+    <row r="45" s="7" customFormat="1" spans="2:48">
       <c r="B45" s="18">
         <v>0.770833333333333</v>
       </c>
@@ -10154,7 +10190,7 @@
         <v/>
       </c>
     </row>
-    <row r="46" spans="2:48">
+    <row r="46" s="7" customFormat="1" spans="2:48">
       <c r="B46" s="18">
         <v>0.791666666666667</v>
       </c>
@@ -10343,7 +10379,7 @@
         <v/>
       </c>
     </row>
-    <row r="47" spans="2:48">
+    <row r="47" s="7" customFormat="1" spans="2:48">
       <c r="B47" s="18">
         <v>0.8125</v>
       </c>
@@ -10532,7 +10568,7 @@
         <v/>
       </c>
     </row>
-    <row r="48" spans="2:48">
+    <row r="48" s="7" customFormat="1" spans="2:48">
       <c r="B48" s="18">
         <v>0.833333333333333</v>
       </c>
@@ -10721,7 +10757,7 @@
         <v/>
       </c>
     </row>
-    <row r="49" spans="2:48">
+    <row r="49" s="7" customFormat="1" spans="2:48">
       <c r="B49" s="18">
         <v>0.854166666666667</v>
       </c>
@@ -10910,7 +10946,7 @@
         <v/>
       </c>
     </row>
-    <row r="50" spans="2:48">
+    <row r="50" s="7" customFormat="1" spans="2:48">
       <c r="B50" s="18">
         <v>0.875</v>
       </c>
@@ -11099,7 +11135,7 @@
         <v/>
       </c>
     </row>
-    <row r="51" spans="2:48">
+    <row r="51" s="7" customFormat="1" spans="2:48">
       <c r="B51" s="18">
         <v>0.895833333333333</v>
       </c>
@@ -11288,7 +11324,7 @@
         <v/>
       </c>
     </row>
-    <row r="52" spans="2:48">
+    <row r="52" s="7" customFormat="1" spans="2:48">
       <c r="B52" s="18">
         <v>0.916666666666666</v>
       </c>
@@ -11477,7 +11513,7 @@
         <v/>
       </c>
     </row>
-    <row r="53" spans="2:48">
+    <row r="53" s="7" customFormat="1" spans="2:48">
       <c r="B53" s="18">
         <v>0.937499999999999</v>
       </c>
@@ -11666,7 +11702,7 @@
         <v/>
       </c>
     </row>
-    <row r="54" spans="2:48">
+    <row r="54" s="7" customFormat="1" spans="2:48">
       <c r="B54" s="18">
         <v>0.958333333333332</v>
       </c>
@@ -11855,7 +11891,7 @@
         <v/>
       </c>
     </row>
-    <row r="55" spans="2:48">
+    <row r="55" s="7" customFormat="1" spans="2:48">
       <c r="B55" s="18">
         <v>0.979166666666665</v>
       </c>
@@ -12044,9 +12080,9 @@
         <v/>
       </c>
     </row>
-    <row r="56" spans="2:48">
+    <row r="56" s="7" customFormat="1" spans="2:48">
       <c r="B56" s="22" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
@@ -12095,9 +12131,9 @@
       <c r="AU56" s="5"/>
       <c r="AV56" s="6"/>
     </row>
-    <row r="57" spans="2:48">
+    <row r="57" s="7" customFormat="1" spans="2:48">
       <c r="B57" s="22" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
@@ -12146,9 +12182,9 @@
       <c r="AU57" s="5"/>
       <c r="AV57" s="6"/>
     </row>
-    <row r="58" spans="2:48">
+    <row r="58" s="7" customFormat="1" spans="2:48">
       <c r="B58" s="22" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
@@ -12197,9 +12233,9 @@
       <c r="AU58" s="5"/>
       <c r="AV58" s="6"/>
     </row>
-    <row r="59" spans="2:48">
+    <row r="59" s="7" customFormat="1" spans="2:48">
       <c r="B59" s="22" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
@@ -12248,9 +12284,9 @@
       <c r="AU59" s="5"/>
       <c r="AV59" s="6"/>
     </row>
-    <row r="60" ht="72" customHeight="1" spans="2:48">
+    <row r="60" s="7" customFormat="1" ht="72" customHeight="1" spans="2:48">
       <c r="B60" s="23" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
@@ -12263,7 +12299,7 @@
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
       <c r="M60" s="28" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="N60" s="24"/>
       <c r="O60" s="24"/>
@@ -12276,7 +12312,7 @@
       <c r="V60" s="24"/>
       <c r="W60" s="24"/>
       <c r="X60" s="28" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Y60" s="24"/>
       <c r="Z60" s="24"/>
@@ -12288,24 +12324,24 @@
       <c r="AF60" s="24"/>
       <c r="AG60" s="24"/>
       <c r="AH60" s="24"/>
-      <c r="AI60" s="39"/>
-      <c r="AJ60" s="40"/>
-      <c r="AK60" s="40"/>
-      <c r="AL60" s="40"/>
-      <c r="AM60" s="40"/>
-      <c r="AN60" s="40"/>
-      <c r="AO60" s="40"/>
-      <c r="AP60" s="40"/>
-      <c r="AQ60" s="40"/>
-      <c r="AR60" s="40"/>
-      <c r="AS60" s="40"/>
-      <c r="AT60" s="40"/>
-      <c r="AU60" s="40"/>
-      <c r="AV60" s="47"/>
+      <c r="AI60" s="38"/>
+      <c r="AJ60" s="39"/>
+      <c r="AK60" s="39"/>
+      <c r="AL60" s="39"/>
+      <c r="AM60" s="39"/>
+      <c r="AN60" s="39"/>
+      <c r="AO60" s="39"/>
+      <c r="AP60" s="39"/>
+      <c r="AQ60" s="39"/>
+      <c r="AR60" s="39"/>
+      <c r="AS60" s="39"/>
+      <c r="AT60" s="39"/>
+      <c r="AU60" s="39"/>
+      <c r="AV60" s="46"/>
     </row>
-    <row r="61" ht="14.45" customHeight="1" spans="2:48">
+    <row r="61" s="7" customFormat="1" ht="14.45" customHeight="1" spans="2:48">
       <c r="B61" s="25" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
@@ -12318,7 +12354,7 @@
       <c r="K61" s="26"/>
       <c r="L61" s="26"/>
       <c r="M61" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="N61" s="26"/>
       <c r="O61" s="26"/>
@@ -12331,7 +12367,7 @@
       <c r="V61" s="26"/>
       <c r="W61" s="26"/>
       <c r="X61" s="29" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Y61" s="26"/>
       <c r="Z61" s="26"/>
@@ -12343,22 +12379,22 @@
       <c r="AF61" s="26"/>
       <c r="AG61" s="26"/>
       <c r="AH61" s="26"/>
-      <c r="AI61" s="41"/>
-      <c r="AJ61" s="42"/>
-      <c r="AK61" s="42"/>
-      <c r="AL61" s="42"/>
-      <c r="AM61" s="42"/>
-      <c r="AN61" s="42"/>
-      <c r="AO61" s="42"/>
-      <c r="AP61" s="42"/>
-      <c r="AQ61" s="42"/>
-      <c r="AR61" s="42"/>
-      <c r="AS61" s="42"/>
-      <c r="AT61" s="42"/>
-      <c r="AU61" s="42"/>
-      <c r="AV61" s="48"/>
+      <c r="AI61" s="40"/>
+      <c r="AJ61" s="41"/>
+      <c r="AK61" s="41"/>
+      <c r="AL61" s="41"/>
+      <c r="AM61" s="41"/>
+      <c r="AN61" s="41"/>
+      <c r="AO61" s="41"/>
+      <c r="AP61" s="41"/>
+      <c r="AQ61" s="41"/>
+      <c r="AR61" s="41"/>
+      <c r="AS61" s="41"/>
+      <c r="AT61" s="41"/>
+      <c r="AU61" s="41"/>
+      <c r="AV61" s="47"/>
     </row>
-    <row r="62" spans="3:3">
+    <row r="62" s="7" customFormat="1" spans="3:3">
       <c r="C62" s="27"/>
     </row>
   </sheetData>
@@ -12398,14 +12434,14 @@
     <mergeCell ref="X5:X6"/>
     <mergeCell ref="AK3:AK5"/>
     <mergeCell ref="AL3:AL5"/>
-    <mergeCell ref="AM3:AV4"/>
-    <mergeCell ref="R4:S5"/>
-    <mergeCell ref="AI60:AV61"/>
     <mergeCell ref="U3:V4"/>
     <mergeCell ref="W3:X4"/>
     <mergeCell ref="Y3:Z4"/>
     <mergeCell ref="AA3:AB4"/>
     <mergeCell ref="AC3:AJ4"/>
+    <mergeCell ref="AM3:AV4"/>
+    <mergeCell ref="R4:S5"/>
+    <mergeCell ref="AI60:AV61"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -12418,170 +12454,154 @@
   <sheetPr/>
   <dimension ref="A1:AT1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1:AT1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" ht="56.25" spans="1:46">
+    <row r="1" customFormat="1" ht="56.25" spans="1:46">
       <c r="A1" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="S1" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="U1" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="X1" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="Y1" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z1" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="AA1" s="2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB1" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AC1" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AD1" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE1" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="AF1" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="AG1" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="AH1" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AI1" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AJ1" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AK1" s="3" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AL1" s="4" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="AM1" s="5" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="AO1" s="5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AP1" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AQ1" s="5" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="AR1" s="5" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AS1" s="5" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AT1" s="6" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>